--- a/test-preserved-format.xlsx
+++ b/test-preserved-format.xlsx
@@ -402,37 +402,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:AQ790"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>*** OTIS ACCEPTANCE PROTOCOL - FILLED BY SYSTEM ***</v>
-      </c>
-    </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Generated on: 7/26/2025, 3:53:02 PM</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Language: hu</v>
+      <c r="J2" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>□ ENDPRÜFUNG FÜR UMBAU / MODERNISIERUNG</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="Q5" t="str">
+        <v>F1100.MOD-d</v>
+      </c>
+      <c r="T5" t="str">
+        <v>V01JJK</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Reception Date:</v>
-      </c>
-      <c r="B6" t="str">
-        <v>2025-01-27</v>
+        <v>für Aufzüge mit Rundseilen bzw. Flachgurten</v>
       </c>
     </row>
     <row r="7">
@@ -440,100 +435,69 @@
         <v>gemäss den Normen SIA 370.10 &amp;  EN 81-1: 1998</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>=== QUESTIONS AND ANSWERS ===</v>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Átvevő neve</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Tesztelő Tamás</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Szerelő neve</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Szerelő Péter</v>
+        <v>Prüfer Mod.</v>
+      </c>
+      <c r="K9" t="str">
+        <v xml:space="preserve">Name des Monteur / Reparateur: </v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Irányítószám</v>
-      </c>
-      <c r="B11" t="str">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Város</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Budapest</v>
+        <v>Prüfer FS:</v>
+      </c>
+      <c r="K11" t="str">
+        <v>Name des ST:</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Utca</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Fő utca</v>
+        <v>Anlage Adresse :</v>
       </c>
       <c r="F13" t="str">
         <v>PLZ :</v>
       </c>
+      <c r="M13" t="str">
+        <v>Stadt :</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>Házszám</v>
-      </c>
-      <c r="B14" t="str">
-        <v>42</v>
-      </c>
       <c r="F14" t="str">
         <v>Strasse :</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Otis Lift-azonosító</v>
-      </c>
-      <c r="B15" t="str">
-        <v>OTIS-001</v>
+      <c r="M14" t="str">
+        <v>N°</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Frekvenciaváltó csere</v>
-      </c>
-      <c r="B16" t="str">
-        <v>igen</v>
+        <v>Original Hersteller :</v>
+      </c>
+      <c r="H16" t="str">
+        <v>N°</v>
+      </c>
+      <c r="L16" t="str">
+        <v>Otis Anlage N° :</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>Nemtommi</v>
-      </c>
-      <c r="B17" t="str">
-        <v>nem</v>
+      <c r="L17" t="str">
+        <v>Projektnr.:</v>
+      </c>
+      <c r="O17" t="str">
+        <v>SCWGPF</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>=== SIGNATURE ===</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Signed by:</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Tesztelő Tamás</v>
+        <v xml:space="preserve">Route: </v>
+      </c>
+      <c r="L19" t="str">
+        <v>Agentur :</v>
+      </c>
+      <c r="O19" t="str">
+        <v>Zürich</v>
       </c>
     </row>
     <row r="21">
@@ -547,6 +511,8610 @@
       </c>
       <c r="F23" t="str">
         <v>PA</v>
+      </c>
+      <c r="M23" t="str">
+        <v>Rahmen der Umbau / Modernisierung :</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="L24" t="str">
+        <v>Beschreibung</v>
+      </c>
+      <c r="R24" t="str">
+        <v>Zu Prüfen</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Nennlast (kg):</v>
+      </c>
+      <c r="F25">
+        <v>240</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Einbau ein VF Inverter………….</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>x</v>
+      </c>
+      <c r="R25" t="str">
+        <v>1 / 4 /  21 / 22 / 29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v xml:space="preserve">Personenkapazität: </v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="I26" t="str">
+        <v xml:space="preserve">               Einbau ein Kabinentür ………</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Einbau ein Kabinentür ………</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>-</v>
+      </c>
+      <c r="R26" t="str">
+        <v>1 / 11 / 12 / 15 / 29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="J27" t="str">
+        <v>Einbau ein Kabinentüreantrieb CC / VF…..</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>x</v>
+      </c>
+      <c r="R27" t="str">
+        <v>1 / 11 / 12 / 15 / 29</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>N-Geschwindig. (m/s):</v>
+      </c>
+      <c r="F28">
+        <v>0.63</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Einbau von ein neuen Kontroller……………</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>x</v>
+      </c>
+      <c r="R28" t="str">
+        <v>1 / 7 / 17 / 18 / 21 / 22 / 29</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="J29" t="str">
+        <v>Steuerung komplett inkl. COP, HB &amp; HP…..</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>x</v>
+      </c>
+      <c r="R29" t="str">
+        <v>1 / 7 / 17 / 18 / 21 / 22 / 29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Anzahl Haltestellen:</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Maschine / Tragseile………………………..</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>x</v>
+      </c>
+      <c r="R30" t="str">
+        <v>1 / 3 / 4 / 5 / 6 / 21 / 22 / 29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v xml:space="preserve">Anzahl Eingänge: </v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Regler / Spannvorrichtung &amp; Seile…………</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>x</v>
+      </c>
+      <c r="R31" t="str">
+        <v>8 / 8.1 / 23 / 24 / 29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Eingänge:</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Kabine &amp; Kabinentür………………………..</v>
+      </c>
+      <c r="Q32" t="str">
+        <v>-</v>
+      </c>
+      <c r="R32" t="str">
+        <v>1/ 9/ 11/ 12/ 15/ 17/ 19/ 29</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="J33" t="str">
+        <v>Türverschluss von Drehtüren……………….</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>x</v>
+      </c>
+      <c r="R33" t="str">
+        <v>14 / 29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Förderhöhe (m):</v>
+      </c>
+      <c r="F34">
+        <v>10.3</v>
+      </c>
+      <c r="J34" t="str">
+        <v xml:space="preserve">Schachttueren </v>
+      </c>
+      <c r="Q34" t="str">
+        <v>-</v>
+      </c>
+      <c r="R34" t="str">
+        <v>13 / 14 / 29</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="J35" t="str">
+        <v xml:space="preserve">Schachtgruben / Nachrüstung </v>
+      </c>
+      <c r="Q35" t="str">
+        <v>x</v>
+      </c>
+      <c r="R35" t="str">
+        <v>16 / 20 / 29</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Maschinenraum:</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Unten</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Gegengewichtsführungsschienen………….</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>-</v>
+      </c>
+      <c r="R36" t="str">
+        <v>10  /  15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="J37" t="str">
+        <v>Neu Gegengewicht………………………….</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>-</v>
+      </c>
+      <c r="R37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="J38" t="str">
+        <v>Alarm / Nachrüstung EN-81.1………………</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>x</v>
+      </c>
+      <c r="R38" t="str">
+        <v>7 / 17 / 29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="J39" t="str">
+        <v>Anpassungen Kanton Zürich ESBA……….</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>-</v>
+      </c>
+      <c r="R39" t="str">
+        <v xml:space="preserve">1 / 4 / 7 / 11 / 12 / 14 / 15 / </v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="R40" t="str">
+        <v>17 / 20 / 21 / 22 / 29</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Schutzeinrichtung für die aufwärts fahrende Kabine gegen Übergeschwindigkeit</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>x</v>
+      </c>
+      <c r="R41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Risikoanalyse über Schutzmassnahmen zur Verringerung eines Gefahr………</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>-</v>
+      </c>
+      <c r="R42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Trommelantrieb / Kettenantrieb……………………………………………………………..</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>-</v>
+      </c>
+      <c r="R43" t="str">
+        <v>27 / 29</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Besondere Anforderungen :</v>
+      </c>
+      <c r="G45" t="str">
+        <v>EX Zone</v>
+      </c>
+      <c r="L45" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="G46" t="str">
+        <v>IP</v>
+      </c>
+      <c r="L46" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="G47" t="str">
+        <v>EFO</v>
+      </c>
+      <c r="L47" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="G48" t="str">
+        <v>Auto. Ruckkehr</v>
+      </c>
+      <c r="L48" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="G49" t="str">
+        <v>Feuerwehr Steuer.</v>
+      </c>
+      <c r="L49" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="G50" t="str">
+        <v>Notstrom</v>
+      </c>
+      <c r="L50" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Verwendungsart des Gebäudes</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Mehrfamilienhaus</v>
+      </c>
+      <c r="G53" t="str">
+        <v>x</v>
+      </c>
+      <c r="J53" t="str">
+        <v>Büro</v>
+      </c>
+      <c r="N53" t="str">
+        <v>-</v>
+      </c>
+      <c r="P53" t="str">
+        <v>Gewerbehaus</v>
+      </c>
+      <c r="T53" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Hochhaus</v>
+      </c>
+      <c r="G54" t="str">
+        <v>-</v>
+      </c>
+      <c r="J54" t="str">
+        <v>Hotel</v>
+      </c>
+      <c r="N54" t="str">
+        <v>-</v>
+      </c>
+      <c r="P54" t="str">
+        <v>Öffentl.Verkehr</v>
+      </c>
+      <c r="T54" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Alters / Pflegeheim</v>
+      </c>
+      <c r="G55" t="str">
+        <v>-</v>
+      </c>
+      <c r="J55" t="str">
+        <v>Spital</v>
+      </c>
+      <c r="N55" t="str">
+        <v>-</v>
+      </c>
+      <c r="P55" t="str">
+        <v>Einfamilienhaus</v>
+      </c>
+      <c r="T55" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Verkaufsgeschäft / Bank</v>
+      </c>
+      <c r="G56" t="str">
+        <v>-</v>
+      </c>
+      <c r="J56" t="str">
+        <v>Andere Gebäude</v>
+      </c>
+      <c r="N56" t="str">
+        <v>-</v>
+      </c>
+      <c r="P56" t="str">
+        <v>Andere verwandung</v>
+      </c>
+      <c r="T56" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Art des Aufzuges</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Personen / Güter</v>
+      </c>
+      <c r="G59" t="str">
+        <v>x</v>
+      </c>
+      <c r="J59" t="str">
+        <v>Lasten / Personen</v>
+      </c>
+      <c r="N59" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Personen / Betten</v>
+      </c>
+      <c r="G60" t="str">
+        <v>-</v>
+      </c>
+      <c r="J60" t="str">
+        <v>Auto Lift</v>
+      </c>
+      <c r="N60" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Personen / Rollstühle</v>
+      </c>
+      <c r="G61" t="str">
+        <v>-</v>
+      </c>
+      <c r="J61" t="str">
+        <v>Andere</v>
+      </c>
+      <c r="N61" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>1. ALLGEMEINES</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>+</v>
+      </c>
+      <c r="B64" t="str">
+        <v>-</v>
+      </c>
+      <c r="C64" t="str">
+        <v>N</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="E65" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F65" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="G66" t="str">
+        <v>Sämtliche Punkte sind wie folgt zu prüfen:</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="G67" t="str">
+        <v>+ = konform, - = nicht konform, N = nicht zutreffend</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>x</v>
+      </c>
+      <c r="D68">
+        <v>1.1</v>
+      </c>
+      <c r="E68" t="str">
+        <v>A 5 01 /02/03</v>
+      </c>
+      <c r="F68">
+        <v>16.2</v>
+      </c>
+      <c r="G68" t="str">
+        <v>Stimmen die Unterlagen mit den Pläne und mit die technische Angaben des Hersteller ?</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>x</v>
+      </c>
+      <c r="D69">
+        <v>1.2</v>
+      </c>
+      <c r="E69" t="str">
+        <v>4 02.1</v>
+      </c>
+      <c r="F69" t="str">
+        <v>6.2 / 6.3.4</v>
+      </c>
+      <c r="G69" t="str">
+        <v>Ist der Zugang zum Maschinenraum, zu den Scheiben, zu den Inspektionstüren, zum schacht-</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="E70" t="str">
+        <v>4 02.1</v>
+      </c>
+      <c r="G70" t="str">
+        <v xml:space="preserve">seitigen Schaltschrank (bei Anlagen ohne Maschinenraum) ständig und gefahrlos, direkt und  </v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="G71" t="str">
+        <v>ohne Betreten von Privaträumen möglich?</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>x</v>
+      </c>
+      <c r="D72">
+        <v>1.3</v>
+      </c>
+      <c r="E72" t="str">
+        <v>3 02.1 / 15</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5.2.1</v>
+      </c>
+      <c r="G72" t="str">
+        <v xml:space="preserve">Erlaubt der Gebäudezustand (z.B. Böden, Beleuchtung, Brüstungen, Verschluss der Zwischen-  </v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="G73" t="str">
+        <v>räume zwischen Wand und Fassade bzw. Türschwelle) die Inbetriebnahme des Aufzugs?</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>x</v>
+      </c>
+      <c r="D74">
+        <v>1.4</v>
+      </c>
+      <c r="G74" t="str">
+        <v>Abnahme der Unterakkordanten Arbeiten.</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>x</v>
+      </c>
+      <c r="D75">
+        <v>1.5</v>
+      </c>
+      <c r="E75" t="str">
+        <v>10 01 / 02</v>
+      </c>
+      <c r="F75">
+        <v>16.2</v>
+      </c>
+      <c r="G75" t="str">
+        <v>Werden die elektrischen Schaltpläne vor Ort, in der Niederlassung oder im Hauptsitz aktualisiert?</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>x</v>
+      </c>
+      <c r="D76">
+        <v>1.6</v>
+      </c>
+      <c r="E76" t="str">
+        <v>9 06</v>
+      </c>
+      <c r="F76">
+        <v>16.3</v>
+      </c>
+      <c r="G76" t="str">
+        <v>Steht eine Aufzugs-Betriebsanleitung für den Kunden zur Verfügung?</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>x</v>
+      </c>
+      <c r="D77">
+        <v>1.7</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Interne QI's</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Interne QI's</v>
+      </c>
+      <c r="G77" t="str">
+        <v>Wurden alle verteilten QI's durchgeführt?</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>2. MASCHINEN- UND ROLLENRAUMES bzw. Maschinen- / Schachtschaltschrank</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v xml:space="preserve">    (bei Anlage ohne Maschinenraum)</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>+</v>
+      </c>
+      <c r="B80" t="str">
+        <v>-</v>
+      </c>
+      <c r="C80" t="str">
+        <v>N</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="E81" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F81" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="str">
+        <v>x</v>
+      </c>
+      <c r="D82">
+        <v>2.1</v>
+      </c>
+      <c r="E82" t="str">
+        <v>4 03.3</v>
+      </c>
+      <c r="F82" t="str">
+        <v xml:space="preserve">6.3.3.3 / </v>
+      </c>
+      <c r="G82" t="str">
+        <v>Verfügen die Maschinenraumtüren / Türe bei der Schachtaussenseite montiertem Schalt-</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="E83" t="str">
+        <v>4 03.34</v>
+      </c>
+      <c r="F83">
+        <v>15.4</v>
+      </c>
+      <c r="G83" t="str">
+        <v xml:space="preserve">Schrank bzw. -luken über Schliessvorrichtungen, die ein Öffnen von innen ohne Schlüssel  </v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="G84" t="str">
+        <v>erlauben? Ist ein Kennzeichnungs- und Hinweisschild "Zutritt vorhanden?</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>x</v>
+      </c>
+      <c r="D85">
+        <v>2.2</v>
+      </c>
+      <c r="E85" t="str">
+        <v>4 01.1</v>
+      </c>
+      <c r="F85" t="str">
+        <v>6.3.1.1</v>
+      </c>
+      <c r="G85" t="str">
+        <v xml:space="preserve">Ist der Maschinenraum sauber? Sind keine aufzugsfremden Installationen vorhanden?  </v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="G86" t="str">
+        <v>Sind keine Materialien im Maschinenraum zwischengelagert?</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>x</v>
+      </c>
+      <c r="D87">
+        <v>2.3</v>
+      </c>
+      <c r="E87" t="str">
+        <v>4 03.2</v>
+      </c>
+      <c r="F87" t="str">
+        <v>6.3.3</v>
+      </c>
+      <c r="G87" t="str">
+        <v>Entsprechen die Abmessungen des Maschinenraums dem Anlagenplan?</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>x</v>
+      </c>
+      <c r="D88">
+        <v>2.4</v>
+      </c>
+      <c r="E88" t="str">
+        <v>4 03.5</v>
+      </c>
+      <c r="F88" t="str">
+        <v>6.3.6</v>
+      </c>
+      <c r="G88" t="str">
+        <v>Entspricht die Belüftung dem Anlagenplan?</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>x</v>
+      </c>
+      <c r="D89">
+        <v>2.5</v>
+      </c>
+      <c r="E89" t="str">
+        <v>4 03 5</v>
+      </c>
+      <c r="F89" t="str">
+        <v>13.6.1</v>
+      </c>
+      <c r="G89" t="str">
+        <v>Ist das Beleuchtungssystem für Kabine, Schacht, Maschinen und Rollenräume unabhängig</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="G90" t="str">
+        <v>von der Triebwerkstromversorgung? Verfügt jeder Stromkreis über einen eigenen Schalter ?</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>x</v>
+      </c>
+      <c r="D91">
+        <v>2.6</v>
+      </c>
+      <c r="F91" t="str">
+        <v>6.3.7</v>
+      </c>
+      <c r="G91" t="str">
+        <v xml:space="preserve">Gewährleistet die elekt. Beleuchtung von Maschinenraum bzw. Schachtschaltschrank (bei </v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="G92" t="str">
+        <v>Anlagen ohne Maschinenraum) am Boden eine Mindestausleuchtung von 200 Lux?</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>x</v>
+      </c>
+      <c r="D93">
+        <v>2.7</v>
+      </c>
+      <c r="E93" t="str">
+        <v>4 03.62</v>
+      </c>
+      <c r="F93" t="str">
+        <v>13.4.2</v>
+      </c>
+      <c r="G93" t="str">
+        <v xml:space="preserve">Ist die Steuereinheit für den Schalter vom Zugang zum Maschinenraum aus leicht zu  </v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="F94" t="str">
+        <v>15.4.2</v>
+      </c>
+      <c r="G94" t="str">
+        <v>erkennen und zu erreichen?</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>x</v>
+      </c>
+      <c r="D95">
+        <v>2.8</v>
+      </c>
+      <c r="E95" t="str">
+        <v>10 02.5</v>
+      </c>
+      <c r="F95" t="str">
+        <v>13.4.2</v>
+      </c>
+      <c r="G95" t="str">
+        <v>Ist der Hauptschalter verriegelbar?</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>x</v>
+      </c>
+      <c r="D96">
+        <v>2.9</v>
+      </c>
+      <c r="G96" t="str">
+        <v>Ist der Schalter für die Fahrkorbbeleuchtung gemäss WWJSSS verriegelbar?</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>x</v>
+      </c>
+      <c r="D97">
+        <v>2.1</v>
+      </c>
+      <c r="E97" t="str">
+        <v>10 02.53</v>
+      </c>
+      <c r="F97" t="str">
+        <v>13.4.1</v>
+      </c>
+      <c r="G97" t="str">
+        <v xml:space="preserve">Entspricht der Anwendungsbereich des Hauptschalters der Anlagen-Nennstrom? </v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>x</v>
+      </c>
+      <c r="D98" t="str">
+        <v>2.11</v>
+      </c>
+      <c r="E98" t="str">
+        <v>11 01.11</v>
+      </c>
+      <c r="F98" t="str">
+        <v>D.2.f.2</v>
+      </c>
+      <c r="G98" t="str">
+        <v xml:space="preserve">Wurde der Stromfluss der Verbindung der Erdklemme des Maschinenraum und den andere </v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="G99" t="str">
+        <v>Aufzugskomponenten, die unbeabsichtigterweise eingeschaltet werden könnten, überprüft?</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>x</v>
+      </c>
+      <c r="D100" t="str">
+        <v>2.12</v>
+      </c>
+      <c r="E100" t="str">
+        <v>10 02.51</v>
+      </c>
+      <c r="F100" t="str">
+        <v>15.15</v>
+      </c>
+      <c r="G100" t="str">
+        <v>Kann bei einer Aufzugsgruppe mit gemeinsamem Maschinenraum jeder Aufzug mit allen</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="G101" t="str">
+        <v>seinen Komponenten eindeutig identifiziert werden?</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>x</v>
+      </c>
+      <c r="D102">
+        <v>2.13</v>
+      </c>
+      <c r="E102" t="str">
+        <v>9 06</v>
+      </c>
+      <c r="F102" t="str">
+        <v>15.4.3</v>
+      </c>
+      <c r="G102" t="str">
+        <v>Sind die Anweisungen zur Personenbefreiung gut sichtbar angebracht?</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="str">
+        <v>x</v>
+      </c>
+      <c r="D103">
+        <v>2.14</v>
+      </c>
+      <c r="E103" t="str">
+        <v>9 06.5</v>
+      </c>
+      <c r="F103" t="str">
+        <v>12.5</v>
+      </c>
+      <c r="G103" t="str">
+        <v>Ist das Notfallsystem verfügbar und einsatzfähig? Ist erkennbar, ob sich der</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="G104" t="str">
+        <v>Fahrkorb im Entriegelungsbereich befindet (DZI, Seilmarkierungen)?</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="G105" t="str">
+        <v>Beim GeN2: wurde das Manöver zur Personenbefreiung getestet? Wurde die Haltbarkeits-</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="G106" t="str">
+        <v>dauer der Batterie festgehalten/eingetragen?</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>x</v>
+      </c>
+      <c r="D107">
+        <v>2.15</v>
+      </c>
+      <c r="E107" t="str">
+        <v>12 03</v>
+      </c>
+      <c r="F107">
+        <v>15.4</v>
+      </c>
+      <c r="G107" t="str">
+        <v xml:space="preserve">Sind alle Beschriftungen und Schilder angebracht? (Vertragsnummer, Maschinenraum- bzw. </v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="G108" t="str">
+        <v>Schachtschaltschranktür, Hauptschalter, Fahrkorbbeleuchtung, Schacht, Gegensprechanlage,</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="G109" t="str">
+        <v>Drehrichtung für Notfallmanöver, ERO-Steuerung, Entriegelungsschlüssel)</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>x</v>
+      </c>
+      <c r="D110">
+        <v>2.16</v>
+      </c>
+      <c r="G110" t="str">
+        <v>Sind Tuchbehälter, Kleiderhaken und Werkzeughalterung vorhanden?</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>x</v>
+      </c>
+      <c r="D111">
+        <v>2.17</v>
+      </c>
+      <c r="F111" t="str">
+        <v>6.3.5</v>
+      </c>
+      <c r="G111" t="str">
+        <v>Verfügen die Öffnungen über Stulpmanschetten, die mindestens 50 mm vom Boden abstehen?</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>x</v>
+      </c>
+      <c r="D112">
+        <v>2.18</v>
+      </c>
+      <c r="E112" t="str">
+        <v>4 03.4</v>
+      </c>
+      <c r="G112" t="str">
+        <v>Sind alle nicht benutzten Schachtkopfdurchgänge verschlossen?</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>x</v>
+      </c>
+      <c r="D113">
+        <v>2.19</v>
+      </c>
+      <c r="F113" t="str">
+        <v>6.3.3.4</v>
+      </c>
+      <c r="G113" t="str">
+        <v>Sind bei Bodendifferenzen im Maschinenraum von mehr als 0,50 m Höhe entsprechende</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="G114" t="str">
+        <v>Stufen oder Leitersprossen und Brüstungen vorhanden?</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>x</v>
+      </c>
+      <c r="D115">
+        <v>2.2</v>
+      </c>
+      <c r="E115" t="str">
+        <v>4 03.23 / 24</v>
+      </c>
+      <c r="F115" t="str">
+        <v>6.3.3</v>
+      </c>
+      <c r="G115" t="str">
+        <v>Entsprechen die Sicherheitsabmessungen und -abstände den Mindestanforderungen?</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>x</v>
+      </c>
+      <c r="D116">
+        <v>2.21</v>
+      </c>
+      <c r="G116" t="str">
+        <v xml:space="preserve">Sind die Elektroleitungskanäle aus Metall untereinander verbunden und über ein Kabel mit </v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="G117" t="str">
+        <v>Mindestquerschnitt von 2,5 mm 2 geerdet?</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>x</v>
+      </c>
+      <c r="D118" t="str">
+        <v>2.22</v>
+      </c>
+      <c r="E118" t="str">
+        <v>EN 81</v>
+      </c>
+      <c r="F118" t="str">
+        <v>14.2.3.4</v>
+      </c>
+      <c r="G118" t="str">
+        <v xml:space="preserve">Ist bei Fahrstrecken von &gt; 30 m eine über Notstrom gespeiste Gegensprechanlage  </v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="G119" t="str">
+        <v>zwischen Fahrkorb und Maschinenraum vorhanden?</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="str">
+        <v>x</v>
+      </c>
+      <c r="D120" t="str">
+        <v>2.23</v>
+      </c>
+      <c r="E120" t="str">
+        <v>13 02.6</v>
+      </c>
+      <c r="F120" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="G120" t="str">
+        <v>Ist das Wartungsbuch auf dem neuesten Stand ausgefuhlt ?</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>3. ANTRIEBSMASCHINE / GETRIEBE / TRAKTIONSSCHEIBE &amp; BREMSE</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>+</v>
+      </c>
+      <c r="B122" t="str">
+        <v>-</v>
+      </c>
+      <c r="C122" t="str">
+        <v>N</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="E123" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F123" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>x</v>
+      </c>
+      <c r="D124">
+        <v>3.1</v>
+      </c>
+      <c r="G124" t="str">
+        <v>Korrekte Maschine ist installiert</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="G125" t="str">
+        <v xml:space="preserve">Marke: </v>
+      </c>
+      <c r="I125" t="str">
+        <v>Montanari  Giulio</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="G126" t="str">
+        <v xml:space="preserve">Typ: </v>
+      </c>
+      <c r="I126" t="str">
+        <v>MGV25M</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>x</v>
+      </c>
+      <c r="D127">
+        <v>3.2</v>
+      </c>
+      <c r="G127" t="str">
+        <v xml:space="preserve">Reinigung und Ausbesserung der Lackierung wurden ausgeführt </v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>x</v>
+      </c>
+      <c r="D128">
+        <v>3.3</v>
+      </c>
+      <c r="G128" t="str">
+        <v>Wurden alle Schrauben (mit dem vom Herst. vorgeschriebenen Anzugsmoment) festgezogen?</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>x</v>
+      </c>
+      <c r="D129">
+        <v>3.4</v>
+      </c>
+      <c r="G129" t="str">
+        <v>Maschine ist wirksam Isoliert (keine Geräuschbrücken)</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>x</v>
+      </c>
+      <c r="D130">
+        <v>3.5</v>
+      </c>
+      <c r="G130" t="str">
+        <v xml:space="preserve">Die Maschine steht im Lot und ist korrekt zu Fahrkorb und Gegenwicht ausgerichtet </v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="G131" t="str">
+        <v>(Abweichung zwischen Traktionsscheibe und Vorgelege beträgt max. 1,5%)</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>x</v>
+      </c>
+      <c r="D132">
+        <v>3.6</v>
+      </c>
+      <c r="G132" t="str">
+        <v>Achse der Traktionsscheibe ist sauber (geschmiert)</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="str">
+        <v>x</v>
+      </c>
+      <c r="D133">
+        <v>3.7</v>
+      </c>
+      <c r="G133" t="str">
+        <v>Ölstand im Getriebe ist in Ordnung</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>x</v>
+      </c>
+      <c r="D134">
+        <v>3.8</v>
+      </c>
+      <c r="G134" t="str">
+        <v>Untersetzung</v>
+      </c>
+      <c r="R134" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="G135" t="str">
+        <v xml:space="preserve">Antriebsscheibe  ᴓ  (mm): </v>
+      </c>
+      <c r="R135">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="G136" t="str">
+        <v>Korrekte Anzahl an Rillen?</v>
+      </c>
+      <c r="R136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>x</v>
+      </c>
+      <c r="D137">
+        <v>3.9</v>
+      </c>
+      <c r="E137" t="str">
+        <v xml:space="preserve">9 01.3 </v>
+      </c>
+      <c r="F137" t="str">
+        <v>9.7 /</v>
+      </c>
+      <c r="G137" t="str">
+        <v>Verfügen die Rollen über Schutzvorrichtungen vor Verletzungen, Abspringen der Rund-</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="F138" t="str">
+        <v>12.11</v>
+      </c>
+      <c r="G138" t="str">
+        <v>oder Flachseile bzw. gegen das Eindringen von Fremdkörpern?</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>x</v>
+      </c>
+      <c r="D139">
+        <v>3.1</v>
+      </c>
+      <c r="G139" t="str">
+        <v>Rillen der Traktionsscheibe sind gereinigt</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>x</v>
+      </c>
+      <c r="D140">
+        <v>3.11</v>
+      </c>
+      <c r="G140" t="str">
+        <v xml:space="preserve">Zustand der Triebschieben in ordung / keine Abnutzung </v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="str">
+        <v>x</v>
+      </c>
+      <c r="D141">
+        <v>3.12</v>
+      </c>
+      <c r="G141" t="str">
+        <v xml:space="preserve">Aussenlager eingestellt, Ölstand korrekt, Schmierung erledigt </v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="str">
+        <v>x</v>
+      </c>
+      <c r="D142">
+        <v>3.13</v>
+      </c>
+      <c r="G142" t="str">
+        <v>Spiel am Getriebe gemäss Herstelleranweisungen kontrolliert</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="str">
+        <v>x</v>
+      </c>
+      <c r="D143">
+        <v>3.14</v>
+      </c>
+      <c r="G143" t="str">
+        <v>Kein Ölaustritt</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>x</v>
+      </c>
+      <c r="D144">
+        <v>3.15</v>
+      </c>
+      <c r="G144" t="str">
+        <v>Maschine läuft leise (ggf. separates Messprotokoll, PMT).</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="str">
+        <v>x</v>
+      </c>
+      <c r="D145">
+        <v>3.16</v>
+      </c>
+      <c r="G145" t="str">
+        <v>Achsen gereinigt und geölt (Öl Nr. 2) gemäss Einstellvorschriften des Herstellers</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>x</v>
+      </c>
+      <c r="D146">
+        <v>3.17</v>
+      </c>
+      <c r="G146" t="str">
+        <v>Wurden die Bremsbacken gemäss Einstellvorschriften des Herstellers gereinigt und eingestellt?</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>x</v>
+      </c>
+      <c r="D147">
+        <v>3.18</v>
+      </c>
+      <c r="E147" t="str">
+        <v>9 05</v>
+      </c>
+      <c r="F147" t="str">
+        <v>12.4.2.1</v>
+      </c>
+      <c r="G147" t="str">
+        <v xml:space="preserve">Bei Strom Ausfall wirkt die Einzel Bremsbacken bei  Abwärtsfahrt der Kabine mit </v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="G148" t="str">
+        <v>Nenngeschwindigkeit und bei 125%  der Nennlast ?</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>x</v>
+      </c>
+      <c r="D149">
+        <v>3.19</v>
+      </c>
+      <c r="G149" t="str">
+        <v>Wurden die Bremskontakte der Maschine (sofern vorhanden) eingestellt und sind sie wirksam?</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>4. ANTRIEBSMOTOR</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>+</v>
+      </c>
+      <c r="B151" t="str">
+        <v>-</v>
+      </c>
+      <c r="C151" t="str">
+        <v>N</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F151" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="E152" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F152" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="C153" t="str">
+        <v>x</v>
+      </c>
+      <c r="D153">
+        <v>4.1</v>
+      </c>
+      <c r="G153" t="str">
+        <v>Kein Ölaustritt</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>x</v>
+      </c>
+      <c r="D154">
+        <v>4.2</v>
+      </c>
+      <c r="G154" t="str">
+        <v>Motorkennzeichnungsplakette und Angabe der Drehrichtung sind vorhanden</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="G155" t="str">
+        <v>Leistung (kW):</v>
+      </c>
+      <c r="L155">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="G156" t="str">
+        <v>Spannung (V) : ……….</v>
+      </c>
+      <c r="L156">
+        <v>360</v>
+      </c>
+      <c r="P156" t="str">
+        <v>Frequenz (Hz) : ……….</v>
+      </c>
+      <c r="S156">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="G157" t="str">
+        <v>Nennstrom (A) : ……….</v>
+      </c>
+      <c r="L157">
+        <v>12</v>
+      </c>
+      <c r="P157" t="str">
+        <v>Drehzahl (U/min): ……….</v>
+      </c>
+      <c r="S157">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="C158" t="str">
+        <v>x</v>
+      </c>
+      <c r="D158">
+        <v>4.3</v>
+      </c>
+      <c r="G158" t="str">
+        <v>Zustand Motorlager und Ölstand kontrolliert, Rollenlager geschmiert</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="C159" t="str">
+        <v>x</v>
+      </c>
+      <c r="D159">
+        <v>4.4</v>
+      </c>
+      <c r="G159" t="str">
+        <v>Motor korrekt zum Getriebe ausgerichtet</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>x</v>
+      </c>
+      <c r="D160">
+        <v>4.5</v>
+      </c>
+      <c r="G160" t="str">
+        <v>Elektrische Anschlüsse und Erdung kontrolliert (keine Doppelmuttern)</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>x</v>
+      </c>
+      <c r="D161">
+        <v>4.6</v>
+      </c>
+      <c r="G161" t="str">
+        <v xml:space="preserve">Wurden die Elektroanschlüsse der Motoren korrekt ausgeführt? (Abschirmung, korrekte </v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="G162" t="str">
+        <v>Biegeradien, keine scharfen Kanten)</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>x</v>
+      </c>
+      <c r="D163">
+        <v>4.7</v>
+      </c>
+      <c r="G163" t="str">
+        <v>Ist der Kabel der Wertgeber ( Encoder ) Abgeschirmt  und separate geführt ?</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>5. ABLENKSROLLEN</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>+</v>
+      </c>
+      <c r="B165" t="str">
+        <v>-</v>
+      </c>
+      <c r="C165" t="str">
+        <v>N</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F165" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="E166" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F166" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>x</v>
+      </c>
+      <c r="D167">
+        <v>5.1</v>
+      </c>
+      <c r="G167" t="str">
+        <v xml:space="preserve">Ablenksrollen ausgerichtet, geschmiert und mit Splinten versehen </v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>x</v>
+      </c>
+      <c r="D168">
+        <v>5.2</v>
+      </c>
+      <c r="E168" t="str">
+        <v>7 05.1</v>
+      </c>
+      <c r="F168" t="str">
+        <v>9.7</v>
+      </c>
+      <c r="G168" t="str">
+        <v>Verfügen die Scheiben über Schutzvorrichtungen vor Verletzungen, Abspringen der Rund-</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="G169" t="str">
+        <v>bzw. Flachseile sowie gegen das Eindringen von Fremdkörpern?    Wirksam isoliert ?</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>x</v>
+      </c>
+      <c r="D170">
+        <v>5.3</v>
+      </c>
+      <c r="E170" t="str">
+        <v>7 02 1</v>
+      </c>
+      <c r="F170" t="str">
+        <v>9.2.1</v>
+      </c>
+      <c r="G170" t="str">
+        <v>Nenndurchmass ist mindestes 40 x das Tragseilendurchmass</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>6. AUFHÄNGUNGS,- TREIBFÄHIKEIT, UND BREMSKOMPONENTEN</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>+</v>
+      </c>
+      <c r="B172" t="str">
+        <v>-</v>
+      </c>
+      <c r="C172" t="str">
+        <v>N</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F172" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="E173" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F173" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>x</v>
+      </c>
+      <c r="D174">
+        <v>6.1</v>
+      </c>
+      <c r="G174" t="str">
+        <v xml:space="preserve">Anzahl Tragsseile: </v>
+      </c>
+      <c r="K174">
+        <v>4</v>
+      </c>
+      <c r="M174" t="str">
+        <v>Nenndurchmesser/-breite (mm):</v>
+      </c>
+      <c r="R174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="C175" t="str">
+        <v>x</v>
+      </c>
+      <c r="D175">
+        <v>6.2</v>
+      </c>
+      <c r="E175" t="str">
+        <v>7 03 3</v>
+      </c>
+      <c r="F175" t="str">
+        <v>9.5.3</v>
+      </c>
+      <c r="G175" t="str">
+        <v>Falls nur zwei Tragseilen installiert sind, ist der Schlaffseilkontakt  montiert und überpruft ?</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>x</v>
+      </c>
+      <c r="D176">
+        <v>6.3</v>
+      </c>
+      <c r="E176">
+        <v>7.01</v>
+      </c>
+      <c r="F176" t="str">
+        <v>9.2.3 / 9.5</v>
+      </c>
+      <c r="G176" t="str">
+        <v>Sind die geeignete Seilenden montiert? Ist die Lastverteilung zwischen den Seilen eingestellt ?</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>x</v>
+      </c>
+      <c r="D177">
+        <v>6.4</v>
+      </c>
+      <c r="E177" t="str">
+        <v>7 03</v>
+      </c>
+      <c r="F177" t="str">
+        <v>9.5.4</v>
+      </c>
+      <c r="G177" t="str">
+        <v>Vorrichtung von Verstellen der Ausgleichsfedern installiert und wirksam? (verdrehungsfreie Seile)</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="str">
+        <v>x</v>
+      </c>
+      <c r="D178">
+        <v>6.5</v>
+      </c>
+      <c r="E178" t="str">
+        <v>7 04</v>
+      </c>
+      <c r="F178" t="str">
+        <v>9.6</v>
+      </c>
+      <c r="G178" t="str">
+        <v>Sind die richtigen Ausgleichsseile / -ketten installiert? Durchmesser (mm):</v>
+      </c>
+      <c r="S178" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>x</v>
+      </c>
+      <c r="D179">
+        <v>6.6</v>
+      </c>
+      <c r="E179" t="str">
+        <v>7 01</v>
+      </c>
+      <c r="F179" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="G179" t="str">
+        <v>Wurde der Zustand der Seile bzw. Gurte kontrolliert?</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>x</v>
+      </c>
+      <c r="D180">
+        <v>6.7</v>
+      </c>
+      <c r="E180" t="str">
+        <v>9 05.1</v>
+      </c>
+      <c r="F180" t="str">
+        <v>D.2.h.1</v>
+      </c>
+      <c r="G180" t="str">
+        <v xml:space="preserve">Hält die Kabine bei Abwärtsfahrt mit Nenngeschwindigkeit und bei 125% der Nennlast  </v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="G181" t="str">
+        <v>im unteren Schachtteil an?</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>x</v>
+      </c>
+      <c r="D182" t="str">
+        <v>6.8</v>
+      </c>
+      <c r="E182" t="str">
+        <v>A 3 01 3</v>
+      </c>
+      <c r="F182" t="str">
+        <v>D.2.h.1</v>
+      </c>
+      <c r="G182" t="str">
+        <v>Hält die leere Kabine bei Aufwärtsfahrt mit Nenngeschwindigkeit im  oberen Schachtteil an?</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>x</v>
+      </c>
+      <c r="D183">
+        <v>6.9</v>
+      </c>
+      <c r="E183" t="str">
+        <v>A 3 01 3</v>
+      </c>
+      <c r="F183" t="str">
+        <v>D.2.h.2</v>
+      </c>
+      <c r="G183" t="str">
+        <v>Keine bewegung der leere Kabine nach oben, wenn das Gegengewicht auf den komprimierten</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="G184" t="str">
+        <v>Puffern aufsitzt und eine Aufwärtsfahrt angefordert wird? (ERO)</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>7. KONTROLLER</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>+</v>
+      </c>
+      <c r="B186" t="str">
+        <v>-</v>
+      </c>
+      <c r="C186" t="str">
+        <v>N</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F186" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="E187" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F187" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>x</v>
+      </c>
+      <c r="D188">
+        <v>7.1</v>
+      </c>
+      <c r="G188" t="str">
+        <v>Referenz elektrischer Schaltplan:</v>
+      </c>
+      <c r="P188" t="str">
+        <v>1.13084 490988</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>x</v>
+      </c>
+      <c r="D189">
+        <v>7.2</v>
+      </c>
+      <c r="G189" t="str">
+        <v>Steuerungstyp:</v>
+      </c>
+      <c r="P189" t="str">
+        <v>SAPB</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>x</v>
+      </c>
+      <c r="D190">
+        <v>7.3</v>
+      </c>
+      <c r="G190" t="str">
+        <v>Controller-Typ:</v>
+      </c>
+      <c r="P190" t="str">
+        <v>Lift-Controller PB 4</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>x</v>
+      </c>
+      <c r="D191">
+        <v>7.4</v>
+      </c>
+      <c r="G191" t="str">
+        <v>Ist der Controller sauber?</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>x</v>
+      </c>
+      <c r="D192">
+        <v>7.5</v>
+      </c>
+      <c r="G192" t="str">
+        <v>Wurde die Schallisolierung installiert?</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>x</v>
+      </c>
+      <c r="D193">
+        <v>7.6</v>
+      </c>
+      <c r="G193" t="str">
+        <v>Sind alle spannungsführenden Teile gegen versehentliche Berührungen gesichert?</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>x</v>
+      </c>
+      <c r="D194">
+        <v>7.7</v>
+      </c>
+      <c r="G194" t="str">
+        <v>Wurden die weichen Reservezuleitungskabeldrähte nur an einer Seite an den Schutzleiter</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="G195" t="str">
+        <v>angeschlossen? Nur eine Erdung pro Anschlussklemme?</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="G196" t="str">
+        <v>Ist nur eine Mutter pro Anschlussklemme vorhanden?</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>x</v>
+      </c>
+      <c r="D197">
+        <v>7.8</v>
+      </c>
+      <c r="G197" t="str">
+        <v>Wurde die Verkabelung korrekt ausgeführt? (Abschirmung, Biegeradien, keine scharfen Kanten)</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>x</v>
+      </c>
+      <c r="D198">
+        <v>7.9</v>
+      </c>
+      <c r="E198" t="str">
+        <v>4 01</v>
+      </c>
+      <c r="F198" t="str">
+        <v>13.1.1.3</v>
+      </c>
+      <c r="G198" t="str">
+        <v xml:space="preserve">Wurde die Verkabelung gemäss den Herstellervorschriften zur elektromagnetischen </v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="G199" t="str">
+        <v>Verträglichkeit ausgeführt? EMC</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="C200" t="str">
+        <v>x</v>
+      </c>
+      <c r="D200">
+        <v>7.1</v>
+      </c>
+      <c r="G200" t="str">
+        <v>Sind die mechanische funktionen der Relais &amp; Schützen, Stromloss überpruft ?</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>x</v>
+      </c>
+      <c r="D201">
+        <v>7.11</v>
+      </c>
+      <c r="G201" t="str">
+        <v>Sind die Elektronische Karten ( Logic Board ) an die Schutzleiter angeschlossen?</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>x</v>
+      </c>
+      <c r="D202" t="str">
+        <v>7.12</v>
+      </c>
+      <c r="E202" t="str">
+        <v>3 08</v>
+      </c>
+      <c r="F202" t="str">
+        <v>13.6.1</v>
+      </c>
+      <c r="G202" t="str">
+        <v xml:space="preserve">Ist die Stromversorgung für die Beleuchtung von Fahrkorb, Schacht, Maschinen- und </v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="G203" t="str">
+        <v>Scheibenraum unabhängig von der Stromversorgung der Maschine (Anlagenschalter)?</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>x</v>
+      </c>
+      <c r="D204" t="str">
+        <v>7.13</v>
+      </c>
+      <c r="E204" t="str">
+        <v>4 01.5</v>
+      </c>
+      <c r="F204" t="str">
+        <v>13.6.3.3</v>
+      </c>
+      <c r="G204" t="str">
+        <v>Verfügt die Fahrkorbbeleuchtung über einen eigenen Kurzschlussschutz?</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>x</v>
+      </c>
+      <c r="D205" t="str">
+        <v>7.14</v>
+      </c>
+      <c r="E205" t="str">
+        <v>8 04 1</v>
+      </c>
+      <c r="F205" t="str">
+        <v>12.10</v>
+      </c>
+      <c r="G205" t="str">
+        <v>Prüfung des überwachung des Antriebsbewegung nach eines Fahrbefehles ( DDP )</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="str">
+        <v>x</v>
+      </c>
+      <c r="D206">
+        <v>7.15</v>
+      </c>
+      <c r="G206" t="str">
+        <v>Wurde bei Montageende der Lüftungsfilter des Controllers (Gen2) ausgetauscht?</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>x</v>
+      </c>
+      <c r="D207">
+        <v>7.16</v>
+      </c>
+      <c r="E207" t="str">
+        <v>11 01 11</v>
+      </c>
+      <c r="F207" t="str">
+        <v>14.1.1.1.j</v>
+      </c>
+      <c r="G207" t="str">
+        <v>Überprüfung des elektrischer Sicherheit in fall von Phasenausfall oder falsche Drehrichtung .</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>8. KABINE GESCHWINDIGKEITSBEGRENZER</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>+</v>
+      </c>
+      <c r="B209" t="str">
+        <v>-</v>
+      </c>
+      <c r="C209" t="str">
+        <v>N</v>
+      </c>
+      <c r="E209" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F209" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="E210" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F210" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>x</v>
+      </c>
+      <c r="D211">
+        <v>8.1</v>
+      </c>
+      <c r="E211" t="str">
+        <v>7 07</v>
+      </c>
+      <c r="F211" t="str">
+        <v>9.9.1</v>
+      </c>
+      <c r="G211" t="str">
+        <v>Fahrkorb-Geschwindigkeitsbegrenzer ist montiert und nach CE-Norm geprüft.</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="G212" t="str">
+        <v xml:space="preserve">Teilereferenznummer: </v>
+      </c>
+      <c r="N212" t="str">
+        <v>TBA20602A352</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="G213" t="str">
+        <v xml:space="preserve">Nummer der Prüfbescheinigung: </v>
+      </c>
+      <c r="N213" t="str">
+        <v>K0210791</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="G214" t="str">
+        <v xml:space="preserve">Prüforganisation: </v>
+      </c>
+      <c r="N214" t="str">
+        <v xml:space="preserve">CE0036 </v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="C215" t="str">
+        <v>x</v>
+      </c>
+      <c r="D215">
+        <v>8.2</v>
+      </c>
+      <c r="E215" t="str">
+        <v>7 07.22</v>
+      </c>
+      <c r="F215" t="str">
+        <v>9.9.10</v>
+      </c>
+      <c r="G215" t="str">
+        <v>Ist bei einstellbarem Geschwindigkeitsbegrenzer die Endeinstellung verkapselt/arretiert?</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>x</v>
+      </c>
+      <c r="D216">
+        <v>8.3</v>
+      </c>
+      <c r="F216" t="str">
+        <v>9.9.5</v>
+      </c>
+      <c r="G216" t="str">
+        <v>Ist die Drehrichtung bezüglich Greifen der Fangvorrichtung angegeben?</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>x</v>
+      </c>
+      <c r="D217">
+        <v>8.4</v>
+      </c>
+      <c r="G217" t="str">
+        <v>Ist das richtige Geschwindigkeitsbegrenzerseil installiert?</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="G218" t="str">
+        <v>Durchmesser:</v>
+      </c>
+      <c r="K218">
+        <v>6.5</v>
+      </c>
+      <c r="N218" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>x</v>
+      </c>
+      <c r="D219">
+        <v>8.5</v>
+      </c>
+      <c r="E219" t="str">
+        <v>7 07.112</v>
+      </c>
+      <c r="F219" t="str">
+        <v>D.2.i</v>
+      </c>
+      <c r="G219" t="str">
+        <v>Gemessene Begrenzerauslösegeschwindigkeit:</v>
+      </c>
+      <c r="P219">
+        <v>0.95</v>
+      </c>
+      <c r="R219" t="str">
+        <v>m/s</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>x</v>
+      </c>
+      <c r="D220">
+        <v>8.6</v>
+      </c>
+      <c r="E220" t="str">
+        <v>7 07.41</v>
+      </c>
+      <c r="F220" t="str">
+        <v>9.9.11.1</v>
+      </c>
+      <c r="G220" t="str">
+        <v>Löst der Geschwindigkeitsbegr. durch die elektr. Sicherheit eine stillsetzen der Maschine?</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>x</v>
+      </c>
+      <c r="D221">
+        <v>8.7</v>
+      </c>
+      <c r="E221" t="str">
+        <v>7 07.44</v>
+      </c>
+      <c r="F221" t="str">
+        <v>9.9.11.2</v>
+      </c>
+      <c r="G221" t="str">
+        <v xml:space="preserve">Verhindert die elektr. Sicherheitsvorrichtung die Inbetriebnahme des Aufzugs, wenn sich der </v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="G222" t="str">
+        <v>Geschwindigkeitsbegr. nach Einrucken der Fang nicht automatisch in Position begibt?</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>x</v>
+      </c>
+      <c r="D223">
+        <v>8.8</v>
+      </c>
+      <c r="E223" t="str">
+        <v xml:space="preserve">7 07.36 </v>
+      </c>
+      <c r="F223" t="str">
+        <v>9.9.11.3</v>
+      </c>
+      <c r="G223" t="str">
+        <v>Funktioniert die elektrische Überwachung des Geschwindigkeitsbegrenzerseils und steuert</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="G224" t="str">
+        <v>sie ein stillsetzen der Maschine ? (Spannrolle in dem Aufzugsschacht Grube)</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>x</v>
+      </c>
+      <c r="D225">
+        <v>8.9</v>
+      </c>
+      <c r="E225" t="str">
+        <v>7 07.31/32</v>
+      </c>
+      <c r="F225" t="str">
+        <v>9.9.4</v>
+      </c>
+      <c r="G225" t="str">
+        <v>Entspricht die im Begrenzerseil auftretende Zugkraft den Anforderungen?</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="str">
+        <v>x</v>
+      </c>
+      <c r="C226" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D226" t="str">
+        <v>8.10</v>
+      </c>
+      <c r="E226" t="str">
+        <v>7 07.26</v>
+      </c>
+      <c r="F226" t="str">
+        <v>9.9.8</v>
+      </c>
+      <c r="G226" t="str">
+        <v xml:space="preserve">Ist der Geschwindigkeitsbegrenzer zugänglich bzw. kann er ferngesteuert getestet und </v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="G227" t="str">
+        <v>in die Normalposition zurückgestellt werden?</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v xml:space="preserve">8.1 GEGENGEWICHT - GESCHWINDIGKEITSBEGRENZER </v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>+</v>
+      </c>
+      <c r="B229" t="str">
+        <v>-</v>
+      </c>
+      <c r="C229" t="str">
+        <v>N</v>
+      </c>
+      <c r="E229" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F229" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="E230" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F230" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" t="str">
+        <v>x</v>
+      </c>
+      <c r="D231" t="str">
+        <v>8.1.1</v>
+      </c>
+      <c r="E231" t="str">
+        <v>7 07</v>
+      </c>
+      <c r="F231" t="str">
+        <v>9.9.3</v>
+      </c>
+      <c r="G231" t="str">
+        <v>Gegengewicht-Geschwindigkeitsbegrenzer ist montiert und nach CE-Norm geprüft.</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="G232" t="str">
+        <v xml:space="preserve">Teilereferenznummer: </v>
+      </c>
+      <c r="N232" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="G233" t="str">
+        <v xml:space="preserve">Nummer der Prüfbescheinigung: </v>
+      </c>
+      <c r="N233" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="G234" t="str">
+        <v xml:space="preserve">Prüforganisation: </v>
+      </c>
+      <c r="N234" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="C235" t="str">
+        <v>x</v>
+      </c>
+      <c r="D235" t="str">
+        <v>8.1.2</v>
+      </c>
+      <c r="E235" t="str">
+        <v>7 07.22</v>
+      </c>
+      <c r="F235" t="str">
+        <v>9.9.10</v>
+      </c>
+      <c r="G235" t="str">
+        <v>Ist bei einstellbarem Geschwindigkeitsbegrenzer die Endeinstellung verkapselt/arretiert?</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="str">
+        <v>x</v>
+      </c>
+      <c r="D236" t="str">
+        <v>8.1.3</v>
+      </c>
+      <c r="F236" t="str">
+        <v>9.9.5</v>
+      </c>
+      <c r="G236" t="str">
+        <v>Ist die Drehrichtung bezüglich Greifen der Fangvorrichtung angegeben?</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="C237" t="str">
+        <v>x</v>
+      </c>
+      <c r="D237" t="str">
+        <v>8.1.4</v>
+      </c>
+      <c r="F237" t="str">
+        <v>9.9.4</v>
+      </c>
+      <c r="G237" t="str">
+        <v>Ist das richtige Geschwindigkeitsbegrenzerseil installiert?</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="G238" t="str">
+        <v>Durchmesser:</v>
+      </c>
+      <c r="K238" t="str">
+        <v>-</v>
+      </c>
+      <c r="N238" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="C239" t="str">
+        <v>x</v>
+      </c>
+      <c r="D239" t="str">
+        <v>8.1.5</v>
+      </c>
+      <c r="E239" t="str">
+        <v>7 07.112</v>
+      </c>
+      <c r="F239" t="str">
+        <v>D.2.i</v>
+      </c>
+      <c r="G239" t="str">
+        <v>Gemessene Begrenzerauslösegeschwindigkeit:</v>
+      </c>
+      <c r="P239" t="str">
+        <v>-</v>
+      </c>
+      <c r="R239" t="str">
+        <v>m/s</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="C240" t="str">
+        <v>x</v>
+      </c>
+      <c r="D240" t="str">
+        <v>8.1.6</v>
+      </c>
+      <c r="E240" t="str">
+        <v>7 07.41</v>
+      </c>
+      <c r="F240" t="str">
+        <v>9.9.11.1</v>
+      </c>
+      <c r="G240" t="str">
+        <v>Löst der Geschwindigkeitsbegr. durch die elektr. Sicherheitsvorr. einen Maschinenstopp aus?</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" t="str">
+        <v>x</v>
+      </c>
+      <c r="D241" t="str">
+        <v>8.1.7</v>
+      </c>
+      <c r="E241" t="str">
+        <v>7 07.44</v>
+      </c>
+      <c r="F241" t="str">
+        <v>9.9.11.2</v>
+      </c>
+      <c r="G241" t="str">
+        <v xml:space="preserve">Verhindert die elektr. Sicherheitsvorrichtung die Inbetriebnahme des Aufzugs, wenn sich der </v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="G242" t="str">
+        <v>Geschwindigkeitsbegr. nach Einrucken der Fangvorricht. nicht automatisch in Position begibt?</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="C243" t="str">
+        <v>x</v>
+      </c>
+      <c r="D243" t="str">
+        <v>8.1.8</v>
+      </c>
+      <c r="E243" t="str">
+        <v xml:space="preserve">7 07.36 </v>
+      </c>
+      <c r="F243" t="str">
+        <v>9.9.11.3</v>
+      </c>
+      <c r="G243" t="str">
+        <v>Funktioniert die elektrische Überwachung des Geschwindigkeitsbegrenzerseils und steuert</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="G244" t="str">
+        <v>sie den Maschine stillstand ? (Spannrolle in der Aufzugsschacht Grube)</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="C245" t="str">
+        <v>x</v>
+      </c>
+      <c r="D245" t="str">
+        <v>8.1.9</v>
+      </c>
+      <c r="E245" t="str">
+        <v>7 07.31/32</v>
+      </c>
+      <c r="F245" t="str">
+        <v>9.9.4</v>
+      </c>
+      <c r="G245" t="str">
+        <v>Entspricht die im Begrenzerseil auftretende Zugkraft den Anforderungen?</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" t="str">
+        <v>x</v>
+      </c>
+      <c r="D246" t="str">
+        <v>8.1.10</v>
+      </c>
+      <c r="E246" t="str">
+        <v>7 07.26</v>
+      </c>
+      <c r="F246" t="str">
+        <v>9.9.8</v>
+      </c>
+      <c r="G246" t="str">
+        <v>Ist der Geschwindigkeitsbegrenzer zugänglich bzw. kann er ferngesteuert getestet und</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="G247" t="str">
+        <v>in die Normalposition zurückgestellt werden?</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v xml:space="preserve">9. KABINENDACH UND OBERE SCHUTZRAUM </v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>+</v>
+      </c>
+      <c r="B249" t="str">
+        <v>-</v>
+      </c>
+      <c r="C249" t="str">
+        <v>N</v>
+      </c>
+      <c r="E249" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F249" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="E250" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F250" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>x</v>
+      </c>
+      <c r="D251">
+        <v>9.1</v>
+      </c>
+      <c r="G251" t="str">
+        <v>Ist das Kabinendach sauber und frei von herumliegenden Teilen?</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>x</v>
+      </c>
+      <c r="D252">
+        <v>9.2</v>
+      </c>
+      <c r="E252" t="str">
+        <v>11 02.33</v>
+      </c>
+      <c r="F252" t="str">
+        <v>15.3</v>
+      </c>
+      <c r="G252" t="str">
+        <v>Sind alle Kennzeichnungen vorhanden (STOP, NOR / INS, Richtung,Warnhinweis an Geländer )</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>x</v>
+      </c>
+      <c r="D253">
+        <v>9.3</v>
+      </c>
+      <c r="G253" t="str">
+        <v>Alle Schalterabdeckungen und Verteilergehäuse montiert und die Kabel ausreichend geschützt.</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>x</v>
+      </c>
+      <c r="D254">
+        <v>9.4</v>
+      </c>
+      <c r="G254" t="str">
+        <v>Sind die Metallkabelkanäle korrekt geerdet ?</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>x</v>
+      </c>
+      <c r="D255">
+        <v>9.5</v>
+      </c>
+      <c r="G255" t="str">
+        <v>Sind alle Abdeckungen montiert?</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>x</v>
+      </c>
+      <c r="D256">
+        <v>9.6</v>
+      </c>
+      <c r="E256" t="str">
+        <v>11 02.3</v>
+      </c>
+      <c r="F256" t="str">
+        <v>8.15 /</v>
+      </c>
+      <c r="G256" t="str">
+        <v>Inspektionssteuerung, Haltevorrichtung und die Steckdose korrekt positioniert und getestet?</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>x</v>
+      </c>
+      <c r="D257">
+        <v>9.7</v>
+      </c>
+      <c r="E257" t="str">
+        <v>11 02.38.39</v>
+      </c>
+      <c r="F257" t="str">
+        <v>14.2.1.3</v>
+      </c>
+      <c r="G257" t="str">
+        <v>Funktioniert die Inspektionsfahrt korrekt und gemäss WWJSSS?</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>x</v>
+      </c>
+      <c r="D258">
+        <v>9.8</v>
+      </c>
+      <c r="E258" t="str">
+        <v>7 06.6</v>
+      </c>
+      <c r="F258" t="str">
+        <v>9.8.8</v>
+      </c>
+      <c r="G258" t="str">
+        <v>Funktioniert die elektrische Überwachung der Fahrkorb-Fangvorrichtungsposition?</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>x</v>
+      </c>
+      <c r="D259" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="E259" t="str">
+        <v>Falls REM</v>
+      </c>
+      <c r="F259" t="str">
+        <v>5.10</v>
+      </c>
+      <c r="G259" t="str">
+        <v>Funktioniert das Alarmsystem korrekt?</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>x</v>
+      </c>
+      <c r="D260">
+        <v>9.1</v>
+      </c>
+      <c r="E260" t="str">
+        <v>WWJSSS</v>
+      </c>
+      <c r="F260" t="str">
+        <v>8.13.3</v>
+      </c>
+      <c r="G260" t="str">
+        <v>Entsprechen die Brüstungen auf dem Kabinendach und die Warnschilder den Anforderungen?</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>x</v>
+      </c>
+      <c r="D261">
+        <v>9.11</v>
+      </c>
+      <c r="E261" t="str">
+        <v>7 02.1</v>
+      </c>
+      <c r="G261" t="str">
+        <v>Umlenkrollen Durchmesser :mm</v>
+      </c>
+      <c r="M261">
+        <v>400</v>
+      </c>
+      <c r="Q261" t="str">
+        <v>Anzahl Rillen:</v>
+      </c>
+      <c r="S261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="C262" t="str">
+        <v>x</v>
+      </c>
+      <c r="D262">
+        <v>9.12</v>
+      </c>
+      <c r="E262" t="str">
+        <v>6 07</v>
+      </c>
+      <c r="F262" t="str">
+        <v>8.12</v>
+      </c>
+      <c r="G262" t="str">
+        <v>Entsprechen die Notklappen und Nottüren den Anforderungen?</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>x</v>
+      </c>
+      <c r="D263">
+        <v>9.13</v>
+      </c>
+      <c r="G263" t="str">
+        <v>Entsprecht die Inspektionssteurung an die Otis WWJSSS Obere =  Abstand von 1,80 m?</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>x</v>
+      </c>
+      <c r="D264">
+        <v>9.14</v>
+      </c>
+      <c r="E264" t="str">
+        <v>11 02.3</v>
+      </c>
+      <c r="F264" t="str">
+        <v xml:space="preserve">14.2.2.1 </v>
+      </c>
+      <c r="G264" t="str">
+        <v>Ist der Stopschalter maximal 0,75 m vom Zugang zum Kabinedach und gemäss WWJSSS</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="C265" t="str">
+        <v>x</v>
+      </c>
+      <c r="D265">
+        <v>9.15</v>
+      </c>
+      <c r="G265" t="str">
+        <v>Ist der Entriegelungskurve sauber und leicht geölt?</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>x</v>
+      </c>
+      <c r="D266">
+        <v>9.16</v>
+      </c>
+      <c r="G266" t="str">
+        <v>Wurde die Fahrkorbisolierung geprüft und die Verbindung Fahrkorb-Bogengang geerdet?</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>x</v>
+      </c>
+      <c r="D267" t="str">
+        <v>9.17</v>
+      </c>
+      <c r="G267" t="str">
+        <v>Beträgt das Spiel der Fahrkorbgleitführungen zwischen 1 und 2 mm ?</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="C268" t="str">
+        <v>x</v>
+      </c>
+      <c r="D268" t="str">
+        <v>9.18</v>
+      </c>
+      <c r="G268" t="str">
+        <v>Sind die automatischen Schmiervorrichtungen bedarfsgerecht eingestellt?</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="str">
+        <v>x</v>
+      </c>
+      <c r="D269" t="str">
+        <v>9.19</v>
+      </c>
+      <c r="E269" t="str">
+        <v>6 08.1</v>
+      </c>
+      <c r="F269" t="str">
+        <v>8.13.2</v>
+      </c>
+      <c r="G269" t="str">
+        <v xml:space="preserve">Weist das Fahrkorbdach eine freie Wartungsfläche von mindestens 0,12m 2 auf, wobei die </v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="G270" t="str">
+        <v>kleinste Abmessung mindestens 250 mm beträgt? (z.B. 250X480 mm)</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>x</v>
+      </c>
+      <c r="D271">
+        <v>9.2</v>
+      </c>
+      <c r="E271" t="str">
+        <v>3 04.1</v>
+      </c>
+      <c r="F271" t="str">
+        <v>5.7.1.1</v>
+      </c>
+      <c r="G271" t="str">
+        <v>Werden die effektiven Sicherheitsabstände gemäss den nachstehenden Bedingungen bei</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="G272" t="str">
+        <v>vom Gegengewicht vollständig komprimierten Puffern eingehalten?</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="I274" t="str">
+        <v>Mass A in mm</v>
+      </c>
+      <c r="N274" t="str">
+        <v>Mass B in mm</v>
+      </c>
+      <c r="R274" t="str">
+        <v>Mass C in mm</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="I275" t="str">
+        <v>(Fahrkorbdach am tiefsten Punkt</v>
+      </c>
+      <c r="N275" t="str">
+        <v>(oberer Teil des Bogengangs am</v>
+      </c>
+      <c r="R275" t="str">
+        <v>(Gleitführung zu</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="I276" t="str">
+        <v>vom Schachtkopf)</v>
+      </c>
+      <c r="N276" t="str">
+        <v>tiefsten Punkt vom Schachtkopf)</v>
+      </c>
+      <c r="R276" t="str">
+        <v>äusserem Ende der Führungen)</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="D277" t="str">
+        <v xml:space="preserve">Gemessene Distanz bei Fahrkorb an Schalter 6LS </v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="I278">
+        <v>6500</v>
+      </c>
+      <c r="M278" t="str">
+        <v>mm</v>
+      </c>
+      <c r="N278">
+        <v>6187</v>
+      </c>
+      <c r="Q278" t="str">
+        <v>mm</v>
+      </c>
+      <c r="R278">
+        <v>6366</v>
+      </c>
+      <c r="T278" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="D279" t="str">
+        <v>Nachlaufweg</v>
+      </c>
+      <c r="F279" t="str">
+        <v>(bis das Gegengewicht</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="F280" t="str">
+        <v>den Puffer berührt)</v>
+      </c>
+      <c r="I280">
+        <v>5626</v>
+      </c>
+      <c r="M280" t="str">
+        <v>mm</v>
+      </c>
+      <c r="N280">
+        <f>SUM(I280)</f>
+        <v>5626</v>
+      </c>
+      <c r="Q280" t="str">
+        <v>mm</v>
+      </c>
+      <c r="R280">
+        <f>SUM(I280)</f>
+        <v>5626</v>
+      </c>
+      <c r="T280" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="D281" t="str">
+        <v>GGW-Pufferweg</v>
+      </c>
+      <c r="I281">
+        <v>70</v>
+      </c>
+      <c r="M281" t="str">
+        <v>mm</v>
+      </c>
+      <c r="N281">
+        <f>SUM(I281)</f>
+        <v>70</v>
+      </c>
+      <c r="Q281" t="str">
+        <v>mm</v>
+      </c>
+      <c r="R281">
+        <f>SUM(I281)</f>
+        <v>70</v>
+      </c>
+      <c r="T281" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="D282" t="str">
+        <v>Sprungweg Mini = 0.1+0.035V2</v>
+      </c>
+      <c r="I282">
+        <v>12</v>
+      </c>
+      <c r="M282" t="str">
+        <v>mm</v>
+      </c>
+      <c r="N282">
+        <f>SUM(I282)</f>
+        <v>12</v>
+      </c>
+      <c r="Q282" t="str">
+        <v>mm</v>
+      </c>
+      <c r="R282">
+        <f>SUM(I282)</f>
+        <v>12</v>
+      </c>
+      <c r="T282" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="D283" t="str">
+        <v>Effektiver Sicherheitsabstand</v>
+      </c>
+      <c r="I283">
+        <f>SUM(I278-I280-I281-I282)</f>
+        <v>792</v>
+      </c>
+      <c r="M283" t="str">
+        <v>mm</v>
+      </c>
+      <c r="N283">
+        <f>SUM(N278-N280-N281-N282)</f>
+        <v>479</v>
+      </c>
+      <c r="Q283" t="str">
+        <v>mm</v>
+      </c>
+      <c r="R283">
+        <f>SUM(R278-R280-R281-R282)</f>
+        <v>658</v>
+      </c>
+      <c r="T283" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Minimal Sicherheitsabstand SIA 370.10</v>
+      </c>
+      <c r="I284" t="str">
+        <v xml:space="preserve"> 700 + 0.035V2</v>
+      </c>
+      <c r="N284" t="str">
+        <v xml:space="preserve"> 400 + 0.035V2</v>
+      </c>
+      <c r="R284" t="str">
+        <v xml:space="preserve"> 100 + 0.035V2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Minimal Sicherheitsabstand EN 81.1</v>
+      </c>
+      <c r="I285" t="str">
+        <v xml:space="preserve"> 1000 + 0.035V2</v>
+      </c>
+      <c r="N285" t="str">
+        <v xml:space="preserve"> 300 + 0.035V2</v>
+      </c>
+      <c r="R285" t="str">
+        <v xml:space="preserve"> 100 + 0.035V2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="str">
+        <v>x</v>
+      </c>
+      <c r="D286">
+        <v>9.21</v>
+      </c>
+      <c r="E286" t="str">
+        <v>3 04.1</v>
+      </c>
+      <c r="F286" t="str">
+        <v>5.7.1.1.d</v>
+      </c>
+      <c r="G286" t="str">
+        <v>Passt in den Sicherheitsraum über dem Fahrkorb ein Parallelepiped mit den</v>
+      </c>
+      <c r="Z286" t="str">
+        <v>GeN2 1,00</v>
+      </c>
+      <c r="AA286" t="str">
+        <v>GeN2 1,60</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="G287" t="str">
+        <v>Mindestabmessungen EN = 500 x 600 x 800 mm</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>x</v>
+      </c>
+      <c r="D288">
+        <v>9.22</v>
+      </c>
+      <c r="E288" t="str">
+        <v>8 03</v>
+      </c>
+      <c r="F288" t="str">
+        <v>10.5.1</v>
+      </c>
+      <c r="G288" t="str">
+        <v xml:space="preserve">Sind der Sicherheitsschalter bzw. der -endnocken korrekt platziert, verriegelt bzw. Mit gelbe </v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="G289" t="str">
+        <v>Farbe gekennzeichnet? Abstand letzter Höchststand bis Auslösepunkt</v>
+      </c>
+      <c r="S289">
+        <v>45</v>
+      </c>
+      <c r="U289" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>x</v>
+      </c>
+      <c r="D290" t="str">
+        <v>9.23</v>
+      </c>
+      <c r="E290" t="str">
+        <v>3 04.12</v>
+      </c>
+      <c r="F290" t="str">
+        <v>5.7.1.2</v>
+      </c>
+      <c r="G290" t="str">
+        <v>Entspricht die verfügbare Länge der GG-Führungen bei vollständig vom Fahrkorb</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="G291" t="str">
+        <v>komprimierten Puffern dem Nennwert?</v>
+      </c>
+      <c r="N291" t="str">
+        <v>(Nennwert = Mass C+Zusatz)</v>
+      </c>
+      <c r="S291">
+        <v>500</v>
+      </c>
+      <c r="U291" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v xml:space="preserve">10. GEGENGEWICHT FÜHRUNGEN  </v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>+</v>
+      </c>
+      <c r="B293" t="str">
+        <v>-</v>
+      </c>
+      <c r="C293" t="str">
+        <v>N</v>
+      </c>
+      <c r="E293" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F293" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="E294" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F294" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>x</v>
+      </c>
+      <c r="D295">
+        <v>10.1</v>
+      </c>
+      <c r="G295" t="str">
+        <v>Entspricht der Typ der Fahrkorbführungen den Herstellerangaben?</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>x</v>
+      </c>
+      <c r="D296">
+        <v>10.2</v>
+      </c>
+      <c r="G296" t="str">
+        <v>Entspricht der Typ der GG-Führungen den Herstellerangaben?</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>x</v>
+      </c>
+      <c r="D297">
+        <v>10.3</v>
+      </c>
+      <c r="G297" t="str">
+        <v>Entspricht die Anzahl der Führungsbefestigungen dem Anlagenplan?</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>x</v>
+      </c>
+      <c r="D298">
+        <v>10.4</v>
+      </c>
+      <c r="G298" t="str">
+        <v>Sind die Fahrkorb- und Gegengewichtführungen sauber und staubfrei?</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>x</v>
+      </c>
+      <c r="D299">
+        <v>10.5</v>
+      </c>
+      <c r="G299" t="str">
+        <v>Wurden die Fahrkorb- und Gegengewichtführungen verwindungsfrei installiert?</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="G300" t="str">
+        <v>Mit einem Spiel von 0 + 2 mm</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>x</v>
+      </c>
+      <c r="D301">
+        <v>10.6</v>
+      </c>
+      <c r="G301" t="str">
+        <v>Wurden alle Befestigungsschrauben festgezogen und mit Scheiben versehen?</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>x</v>
+      </c>
+      <c r="D302">
+        <v>10.7</v>
+      </c>
+      <c r="G302" t="str">
+        <v>Sind alle Laschen eingestellt, festgezogen und gehobelt mit Abstand von + / - 20 cm versehen?</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="C303" t="str">
+        <v>X</v>
+      </c>
+      <c r="D303">
+        <v>10.8</v>
+      </c>
+      <c r="G303" t="str">
+        <v xml:space="preserve">Wurden die Fahrkorb- und GG-Führungen gemäss Herstellerangaben verkeilt, </v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="G304" t="str">
+        <v xml:space="preserve">auf dem Grubenboden aufgestellt und an der Montagelehre festgeschraubt? </v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>11. KABINENTÜRE UND TÜRMASCHINEN</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>+</v>
+      </c>
+      <c r="B306" t="str">
+        <v>-</v>
+      </c>
+      <c r="C306" t="str">
+        <v>N</v>
+      </c>
+      <c r="E306" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F306" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="E307" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F307" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>x</v>
+      </c>
+      <c r="D308">
+        <v>11.1</v>
+      </c>
+      <c r="G308" t="str">
+        <v>Türmaschine Seite FO, Typ:</v>
+      </c>
+      <c r="N308" t="str">
+        <v>Siemens AT 40</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="G309" t="str">
+        <v>Vorschriftsgemäss eingestellt</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>x</v>
+      </c>
+      <c r="D310">
+        <v>11.2</v>
+      </c>
+      <c r="G310" t="str">
+        <v>Türmaschine Seite RO, Typ:</v>
+      </c>
+      <c r="N310" t="str">
+        <v>Siemens AT 40</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="G311" t="str">
+        <v>Vorschriftsgemäss eingestellt</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>x</v>
+      </c>
+      <c r="D312">
+        <v>11.3</v>
+      </c>
+      <c r="E312" t="str">
+        <v>6 05.51</v>
+      </c>
+      <c r="F312" t="str">
+        <v>8.9.3</v>
+      </c>
+      <c r="G312" t="str">
+        <v>Verriegelung der Fahrkorbtüre und Sicherheitskontakt kontrollieren</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>x</v>
+      </c>
+      <c r="D313">
+        <v>11.4</v>
+      </c>
+      <c r="G313" t="str">
+        <v>Sind die Türseile, Halterungen korrekt montiert,gespannt, &amp; alle Schrauben festgezogen ?</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>x</v>
+      </c>
+      <c r="D314">
+        <v>11.5</v>
+      </c>
+      <c r="E314" t="str">
+        <v>6 05.41</v>
+      </c>
+      <c r="F314" t="str">
+        <v>8.6.3</v>
+      </c>
+      <c r="G314" t="str">
+        <v>Beträgt das Spiel zwischen den Türflügeln bzw. zwischen Türflügel, Pfosten, Sturz und Schwelle</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="G315" t="str">
+        <v>im geschlossenen Zustand mind. 3 mm und maximal 6 mm? (10 mm bei Verschleiss)</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>x</v>
+      </c>
+      <c r="D316" t="str">
+        <v>11.6</v>
+      </c>
+      <c r="E316" t="str">
+        <v>3 03.12</v>
+      </c>
+      <c r="F316" t="str">
+        <v>11.2.2</v>
+      </c>
+      <c r="G316" t="str">
+        <v>Beträgt der waagrechte Abstand zwischen Kabinenschwelle &amp; Schachttürschwelle Max.35mm ?</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>x</v>
+      </c>
+      <c r="D317" t="str">
+        <v>11.7</v>
+      </c>
+      <c r="G317" t="str">
+        <v>Sind Fahrkorbschwelle, Führungen und Rollen sauber und leicht geölt?</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>x</v>
+      </c>
+      <c r="D318" t="str">
+        <v>11.8</v>
+      </c>
+      <c r="E318" t="str">
+        <v>6 05.53</v>
+      </c>
+      <c r="F318" t="str">
+        <v>8.9</v>
+      </c>
+      <c r="G318" t="str">
+        <v xml:space="preserve">Wurden die Türkontakte daraufhin überprüft, ob sie im geöffneten Zustand die Fahrkorb- </v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="G319" t="str">
+        <v>bewegung unterbinden?</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>x</v>
+      </c>
+      <c r="D320" t="str">
+        <v>11.9</v>
+      </c>
+      <c r="G320" t="str">
+        <v>Ist das Entriegelungsschwert  im Lot und gemäss Herstellerangaben eingestellt ?</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>x</v>
+      </c>
+      <c r="D321" t="str">
+        <v>11.10</v>
+      </c>
+      <c r="E321" t="str">
+        <v>11 02.66</v>
+      </c>
+      <c r="F321" t="str">
+        <v>14.2.1.3.a)1)</v>
+      </c>
+      <c r="G321" t="str">
+        <v xml:space="preserve">Wird die Türmaschine bei Aktivierung der Stopvorrichtung/Inspektionsfahrt von Kabinendach. </v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="E322" t="str">
+        <v>11 02.34</v>
+      </c>
+      <c r="G322" t="str">
+        <v>ausser Betrieb gesetzt?</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="C323" t="str">
+        <v>X</v>
+      </c>
+      <c r="D323" t="str">
+        <v>11.11</v>
+      </c>
+      <c r="E323" t="str">
+        <v>6 05.16</v>
+      </c>
+      <c r="F323" t="str">
+        <v>8.6.7.4</v>
+      </c>
+      <c r="G323" t="str">
+        <v>Verfügen Glastürfelder über eine korrekte Kennzeichnung (Hersteller,Glastyp, Glasstärke ?</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>x</v>
+      </c>
+      <c r="D324" t="str">
+        <v>11.12</v>
+      </c>
+      <c r="G324" t="str">
+        <v>Sind die Türfelder im offenen und geschlossenen Zustand korrekt ausgerichtet?</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>x</v>
+      </c>
+      <c r="D325" t="str">
+        <v>11.13</v>
+      </c>
+      <c r="E325" t="str">
+        <v>6 05.54</v>
+      </c>
+      <c r="F325" t="str">
+        <v>8.10</v>
+      </c>
+      <c r="G325" t="str">
+        <v>Erfüllen mehrflügelige Schiebetüren die Anforderungen? (elektrische Überwachung</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="G326" t="str">
+        <v>des nicht verriegelten Türflügels)</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>x</v>
+      </c>
+      <c r="D327" t="str">
+        <v>11.14</v>
+      </c>
+      <c r="E327" t="str">
+        <v>3 03.14</v>
+      </c>
+      <c r="F327" t="str">
+        <v>11.2.1 /</v>
+      </c>
+      <c r="G327" t="str">
+        <v>Beträgt der waagrechte Abstand zwischen Schachtwand und Kabinenschwelle =&lt; 150mm ?</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="E328" t="str">
+        <v>6 05.6</v>
+      </c>
+      <c r="F328" t="str">
+        <v>8.9.3</v>
+      </c>
+      <c r="G328" t="str">
+        <v xml:space="preserve">Ein Abstand von höchstens 200mm ist zullässig in einen senkrechten höhe von  0,50 m. </v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="G329" t="str">
+        <v xml:space="preserve">Diese Anforderung gelten nicht Falls die Kabinentüre mit eine elektromechanische Verriegelung . </v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="G330" t="str">
+        <v>verfügt?</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>x</v>
+      </c>
+      <c r="D331" t="str">
+        <v>11.15</v>
+      </c>
+      <c r="G331" t="str">
+        <v>Wurden die Elektrokabel korrekt verlegt? Keine Führung über scharfe Kanten,</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="G332" t="str">
+        <v>wurden die Abschirmungen und Erdanschlüsse ausgeführt?</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>12. FAHRKORBEINGANG &amp; SICHERHEIT DER TÜRBEWEGUNGEN</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>+</v>
+      </c>
+      <c r="B334" t="str">
+        <v>-</v>
+      </c>
+      <c r="C334" t="str">
+        <v>N</v>
+      </c>
+      <c r="E334" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F334" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="E335" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F335" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>x</v>
+      </c>
+      <c r="D336">
+        <v>12.1</v>
+      </c>
+      <c r="E336" t="str">
+        <v>6 05.423</v>
+      </c>
+      <c r="F336" t="str">
+        <v>8.7.2.1.1.1</v>
+      </c>
+      <c r="G336" t="str">
+        <v>Liegt der erforderliche Kraftaufwand, um das Schliessen der Türe zu verhindern, unter 150 N?</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>x</v>
+      </c>
+      <c r="D337">
+        <v>12.2</v>
+      </c>
+      <c r="G337" t="str">
+        <v>Gibt es bei der Türöffnung keine Schläge bei Erreichen des Endanschlags?</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>x</v>
+      </c>
+      <c r="D338">
+        <v>12.3</v>
+      </c>
+      <c r="G338" t="str">
+        <v>Gibt es bei der erneuten Türöffnung keine Schläge bei Erreichen des Endanschlags?</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>x</v>
+      </c>
+      <c r="D339">
+        <v>12.4</v>
+      </c>
+      <c r="G339" t="str">
+        <v>Gibt es bei der Türschliessung keine Schläge bei Erreichen des Endanschlags?</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>x</v>
+      </c>
+      <c r="D340">
+        <v>12.5</v>
+      </c>
+      <c r="E340" t="str">
+        <v>6 05.15</v>
+      </c>
+      <c r="F340" t="str">
+        <v>7.2.3.2</v>
+      </c>
+      <c r="G340" t="str">
+        <v xml:space="preserve">Beträgt das Spiel bei manueller Krafteinwirkung von 150 N am schwächsten Punkt max. 30 mm </v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="E341" t="str">
+        <v>6 05.2</v>
+      </c>
+      <c r="G341" t="str">
+        <v>bei einer seitlich öffnenden Tür bzw. 45 mm bei zentral öffnender Tür?</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>x</v>
+      </c>
+      <c r="D342">
+        <v>12.6</v>
+      </c>
+      <c r="E342" t="str">
+        <v>6 05.424</v>
+      </c>
+      <c r="F342" t="str">
+        <v>8.7.2.1.1.2</v>
+      </c>
+      <c r="G342" t="str">
+        <v>Beträgt die kinetische Energie max. 10 J bei durchschnittlicher Türschliessgeschwindigkeit?</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="G343" t="str">
+        <v>(gemessen: 707 N)</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>x</v>
+      </c>
+      <c r="D344">
+        <v>12.7</v>
+      </c>
+      <c r="E344" t="str">
+        <v>6 05.71</v>
+      </c>
+      <c r="F344" t="str">
+        <v>8.11.2</v>
+      </c>
+      <c r="G344" t="str">
+        <v xml:space="preserve">Kann die Fahrkorbtüre innerhalb des Entriegelungsbereichs bei einem Stromausfall </v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="G345" t="str">
+        <v>manuell mit einer Kraft von max. 300 N geöffnet werden?</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>x</v>
+      </c>
+      <c r="D346">
+        <v>12.8</v>
+      </c>
+      <c r="E346" t="str">
+        <v>6 05.4241</v>
+      </c>
+      <c r="F346" t="str">
+        <v>8.7.2.1.1.3</v>
+      </c>
+      <c r="G346" t="str">
+        <v>Beträgt die kinetische Energie bei erzwungener Türschliessung max. 4 J? (gemessen: 447N)</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>x</v>
+      </c>
+      <c r="D347">
+        <v>12.9</v>
+      </c>
+      <c r="G347" t="str">
+        <v>Wurden die Endanschläge für die Türöffnung / Schliessung eingestellt und kontrolliert?</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>x</v>
+      </c>
+      <c r="D348" t="str">
+        <v>12.10</v>
+      </c>
+      <c r="E348" t="str">
+        <v>6 05.4231</v>
+      </c>
+      <c r="F348" t="str">
+        <v>8.7.2.1.1.3</v>
+      </c>
+      <c r="G348" t="str">
+        <v>Öffnet ein Schutzmechanismus die Türen wieder, wenn eine Person in der Türe eingeklemmt</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="G349" t="str">
+        <v>wird oder Gefahr läuft, eingeklemmt zu werden?</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="C350" t="str">
+        <v>x</v>
+      </c>
+      <c r="D350" t="str">
+        <v>12.11</v>
+      </c>
+      <c r="E350" t="str">
+        <v>6 05.15</v>
+      </c>
+      <c r="F350" t="str">
+        <v>8.7.1</v>
+      </c>
+      <c r="G350" t="str">
+        <v>Weist die  Oberfläche der Kabinentüre Vertiefungen bzw. Vorsprünge von Max 3mm ?</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>x</v>
+      </c>
+      <c r="D351" t="str">
+        <v>12.12</v>
+      </c>
+      <c r="E351" t="str">
+        <v>6 04</v>
+      </c>
+      <c r="F351" t="str">
+        <v>8.4</v>
+      </c>
+      <c r="G351" t="str">
+        <v>Halten die Schürzeblech des Kabinen die Mindestanforderungen bezüglich Abmessungen,</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="G352" t="str">
+        <v>Anschrägung,  Sind sie korrekt montiert?. Sonder Anförderungen falls Rampenfahrt-Steuerung.</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="C353" t="str">
+        <v>x</v>
+      </c>
+      <c r="D353" t="str">
+        <v>12.13</v>
+      </c>
+      <c r="E353" t="str">
+        <v>Selon EN</v>
+      </c>
+      <c r="F353" t="str">
+        <v>8.6.7.5</v>
+      </c>
+      <c r="G353" t="str">
+        <v>Wurde bei Glastüren eine der Massnahmen zum Schutz von Kinderhänden vorgesehen?</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="G354" t="str">
+        <v>(verringerter Reibungskoeffizient, Glasfärbung, Fingereinklemmschutz, andere)</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="C355" t="str">
+        <v>x</v>
+      </c>
+      <c r="D355" t="str">
+        <v>12.14</v>
+      </c>
+      <c r="E355" t="str">
+        <v>6 05.421</v>
+      </c>
+      <c r="F355" t="str">
+        <v>8.6.1 / 8.7.2.2</v>
+      </c>
+      <c r="G355" t="str">
+        <v>Erfüllen die vertikalen Schiebetüren die Anforderungen?</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>x</v>
+      </c>
+      <c r="D356" t="str">
+        <v>12.15</v>
+      </c>
+      <c r="E356" t="str">
+        <v>5 07.12</v>
+      </c>
+      <c r="F356" t="str">
+        <v>7.7.1</v>
+      </c>
+      <c r="G356" t="str">
+        <v xml:space="preserve">Beträgt der Entriegelungsbereich bei gleichzeitig angetriebenen Schacht- und </v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="G357" t="str">
+        <v>Fahrkorbtüren 350 mm bzw. jeweils 200 mm auf beiden Antriebsseiten?</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>13. AUTOMATISCHE SCHACHTTÜREN  In jeder Etage zu kontrollieren</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="E359" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F359" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>+</v>
+      </c>
+      <c r="B360" t="str">
+        <v>-</v>
+      </c>
+      <c r="C360" t="str">
+        <v>N</v>
+      </c>
+      <c r="E360" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F360" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="E361" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F361" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="C362" t="str">
+        <v>x</v>
+      </c>
+      <c r="D362">
+        <v>13.1</v>
+      </c>
+      <c r="G362" t="str">
+        <v>Tür und Türschliessmechanismus sind korrekt montiert und nach CE-Norm geprüft.</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="G363" t="str">
+        <v xml:space="preserve">Teilereferenznummer: </v>
+      </c>
+      <c r="Q363" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="G364" t="str">
+        <v xml:space="preserve">Prüfbescheinigungsnummer: </v>
+      </c>
+      <c r="Q364" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="G365" t="str">
+        <v xml:space="preserve">Prüforganisation: </v>
+      </c>
+      <c r="Q365" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="G366" t="str">
+        <v>Identifikationsnr. der Türen und Türschliessvorrichtungen:</v>
+      </c>
+      <c r="Q366" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="G367" t="str">
+        <v>KompatibilitätsSIA.370/10 der Schachttüren mit der Brandschutzklasse</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="C368" t="str">
+        <v>x</v>
+      </c>
+      <c r="D368">
+        <v>13.2</v>
+      </c>
+      <c r="G368" t="str">
+        <v>Sind die Schachttüren gemäss den Montageanweisungen eingestellt? (Seil-/Federspannung,</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="G369" t="str">
+        <v>Rollen / Gegenrollen, Führungen, Türschwelle, Fussleisten)</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="C370" t="str">
+        <v>x</v>
+      </c>
+      <c r="D370">
+        <v>13.3</v>
+      </c>
+      <c r="E370" t="str">
+        <v>3 03.11</v>
+      </c>
+      <c r="F370" t="str">
+        <v>5.4.3</v>
+      </c>
+      <c r="G370" t="str">
+        <v>Erfüllen die Schürzeblechen  der Schachttüren die Minimalanforderungen bezüglich</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="G371" t="str">
+        <v>Abmessungen, Fase usw. und sind sie korrekt montiert?</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="C372" t="str">
+        <v>x</v>
+      </c>
+      <c r="D372">
+        <v>13.4</v>
+      </c>
+      <c r="E372" t="str">
+        <v>5 01.3</v>
+      </c>
+      <c r="F372" t="str">
+        <v>7.1</v>
+      </c>
+      <c r="G372" t="str">
+        <v xml:space="preserve">Beträgt das Spiel zwischen Türflügel und -pfosten, Türsturz bzw. -schwelle bei </v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="G373" t="str">
+        <v>geschlossenen Türen mindestens 3 mm und höchstens 6 mm? (10 mm bei Verschleiss)</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="C374" t="str">
+        <v>x</v>
+      </c>
+      <c r="D374" t="str">
+        <v>13.5</v>
+      </c>
+      <c r="E374" t="str">
+        <v>5 07.11</v>
+      </c>
+      <c r="F374" t="str">
+        <v>7.7</v>
+      </c>
+      <c r="G374" t="str">
+        <v xml:space="preserve">Entspricht das Spiel der Schliessvorrichtung den Montageanweisungen? Wird der Sicher- </v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="G375" t="str">
+        <v>heitsstromkreis durch Ziehen oder Drücken an der geschlossenen Tür nicht unterbrochen?</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" t="str">
+        <v>x</v>
+      </c>
+      <c r="D376" t="str">
+        <v>13.6</v>
+      </c>
+      <c r="E376" t="str">
+        <v>5 07.3</v>
+      </c>
+      <c r="F376" t="str">
+        <v>7.7.4</v>
+      </c>
+      <c r="G376" t="str">
+        <v>Wurden die Kontakte aller Schachttüren dahingehend überprüft, dass sie die</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="G377" t="str">
+        <v>Fahrkorbbewegung bei sich öffnenden Türen verhindern?</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="C378" t="str">
+        <v>x</v>
+      </c>
+      <c r="D378" t="str">
+        <v>13.7</v>
+      </c>
+      <c r="G378" t="str">
+        <v>Sind die Führungen und die Gegengewichte der Türen auf geräuscharmen Betrieb und</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="G379" t="str">
+        <v>gemäss den Montageanweisungen eingestellt?</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="C380" t="str">
+        <v>x</v>
+      </c>
+      <c r="D380" t="str">
+        <v>13.8</v>
+      </c>
+      <c r="E380" t="str">
+        <v>5 08</v>
+      </c>
+      <c r="F380" t="str">
+        <v>7.7.3.2</v>
+      </c>
+      <c r="G380" t="str">
+        <v>Funktioniert die Schliessvorrichtung korrekt?</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="C381" t="str">
+        <v>x</v>
+      </c>
+      <c r="D381" t="str">
+        <v>13.9</v>
+      </c>
+      <c r="E381" t="str">
+        <v>GemassEN</v>
+      </c>
+      <c r="F381" t="str">
+        <v>7.5.1</v>
+      </c>
+      <c r="G381" t="str">
+        <v>Weist die äussere Oberfläche der Türen Vertiefungen bzw. Vorsprünge von max. 3 mm auf?</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="C382" t="str">
+        <v>x</v>
+      </c>
+      <c r="D382" t="str">
+        <v>13.10</v>
+      </c>
+      <c r="E382" t="str">
+        <v>5 07.23</v>
+      </c>
+      <c r="F382" t="str">
+        <v>7.7.3.2</v>
+      </c>
+      <c r="G382" t="str">
+        <v>Kann an jedem Etagenpodest mindestens eine Schachttüre mit Hilfe eines Sicherheitsschlüssels</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="G383" t="str">
+        <v>von aussen geöffnet werden? (Dreikantschlüssel).</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="C384" t="str">
+        <v>x</v>
+      </c>
+      <c r="D384" t="str">
+        <v>13.11</v>
+      </c>
+      <c r="E384" t="str">
+        <v>Gemass EN</v>
+      </c>
+      <c r="F384" t="str">
+        <v>7.2.3.5</v>
+      </c>
+      <c r="G384" t="str">
+        <v>Verfügen die Glasfelder über eine geeignete Kennzeichnung (Hersteller, Marke, Glastyp,</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="G385" t="str">
+        <v>Glasstärke)?</v>
+      </c>
+      <c r="Q385" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="C386" t="str">
+        <v>x</v>
+      </c>
+      <c r="D386" t="str">
+        <v>13.12</v>
+      </c>
+      <c r="E386" t="str">
+        <v>5 07.42</v>
+      </c>
+      <c r="F386" t="str">
+        <v>7.7.6.2</v>
+      </c>
+      <c r="G386" t="str">
+        <v>Ist eine Kontrolle der Schliessposition der nicht verriegelten Türflügel vorhanden?</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="C387" t="str">
+        <v>x</v>
+      </c>
+      <c r="D387" t="str">
+        <v>13.13</v>
+      </c>
+      <c r="E387" t="str">
+        <v>Gemass EN</v>
+      </c>
+      <c r="F387" t="str">
+        <v>7.2.3.6</v>
+      </c>
+      <c r="G387" t="str">
+        <v>Wurde im Falle von Glastüren eine der Schutzvorkehrungen zum Schutz von Kinderhänden</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="G388" t="str">
+        <v>getroffen? (verringerter Reibungskoeffizient, Glasfärbung, Fingereinklemmschutz, andere)</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="C389" t="str">
+        <v>x</v>
+      </c>
+      <c r="D389" t="str">
+        <v>13.14</v>
+      </c>
+      <c r="E389" t="str">
+        <v>5 05.22</v>
+      </c>
+      <c r="F389" t="str">
+        <v>7.4.3/7.5.2.2</v>
+      </c>
+      <c r="G389" t="str">
+        <v>Erfüllen die vertikalen Schiebetüren die Anforderungen?</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="C390" t="str">
+        <v>x</v>
+      </c>
+      <c r="D390" t="str">
+        <v>13.15</v>
+      </c>
+      <c r="E390" t="str">
+        <v>5 07.212</v>
+      </c>
+      <c r="F390" t="str">
+        <v>7.7.3.1</v>
+      </c>
+      <c r="G390" t="str">
+        <v xml:space="preserve">Greifen die Verriegelungskomponenten mindestens 7 mm ein, bevor der </v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="G391" t="str">
+        <v>Fahrkorb abfahren kann?</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="C392" t="str">
+        <v>x</v>
+      </c>
+      <c r="D392" t="str">
+        <v>13.16</v>
+      </c>
+      <c r="E392" t="str">
+        <v>5 07.223</v>
+      </c>
+      <c r="F392" t="str">
+        <v>7.7.5</v>
+      </c>
+      <c r="G392" t="str">
+        <v>Wurden die mechanischen Verriegelungen aller Schachttüren mit korrekter Position</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="G393" t="str">
+        <v>des Verriegelungselements geprüft?</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="C394" t="str">
+        <v>x</v>
+      </c>
+      <c r="D394" t="str">
+        <v>13.17</v>
+      </c>
+      <c r="F394" t="str">
+        <v>7.2.3.2</v>
+      </c>
+      <c r="G394" t="str">
+        <v>Türspalt bei einer Handkraft von 150N: &lt;30mm bei einseitig öffnender Tür, &lt;45mm bei</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="G395" t="str">
+        <v>zentralöffnender Tür</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>14. SCHACHTDREHFLÜGELTÜREN  In jeder Etage zu kontrollieren</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>+</v>
+      </c>
+      <c r="B397" t="str">
+        <v>-</v>
+      </c>
+      <c r="C397" t="str">
+        <v>N</v>
+      </c>
+      <c r="E397" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F397" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="E398" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F398" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>x</v>
+      </c>
+      <c r="D399">
+        <v>14.1</v>
+      </c>
+      <c r="G399" t="str">
+        <v xml:space="preserve">Kennzeichnung Türe: </v>
+      </c>
+      <c r="M399" t="str">
+        <v>Bestehend</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="G400" t="str">
+        <v>KompatibilitätsSIA.370/10 der Schachttüren mit der Brandschutzklasse</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>x</v>
+      </c>
+      <c r="D401">
+        <v>14.2</v>
+      </c>
+      <c r="E401" t="str">
+        <v>5 06.23</v>
+      </c>
+      <c r="F401" t="str">
+        <v>7.6.2</v>
+      </c>
+      <c r="G401" t="str">
+        <v>Sichtbären Kabine Anwesenheitsanzeige : Lichtsignal oder Schauöffnungen ? Bei jeden Etage.</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>x</v>
+      </c>
+      <c r="D402">
+        <v>14.3</v>
+      </c>
+      <c r="G402" t="str">
+        <v>Entspricht die Einstellung der Schachttüren den Montageanweisungen? (sind die</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="G403" t="str">
+        <v>Scharniere geölt?)</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="C404" t="str">
+        <v>x</v>
+      </c>
+      <c r="D404">
+        <v>14.4</v>
+      </c>
+      <c r="E404" t="str">
+        <v>3 03.11</v>
+      </c>
+      <c r="F404" t="str">
+        <v>5.4.3</v>
+      </c>
+      <c r="G404" t="str">
+        <v>Halten die Schurtzeblechen der Schachttüren die Mindestanforderungen bezüglich</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="G405" t="str">
+        <v>Abmessungen, Fase usw. ein bzw. sind sie korrekt montiert?</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>x</v>
+      </c>
+      <c r="D406" t="str">
+        <v>14.5</v>
+      </c>
+      <c r="E406" t="str">
+        <v>3 03 24</v>
+      </c>
+      <c r="F406" t="str">
+        <v>11.2.2</v>
+      </c>
+      <c r="G406" t="str">
+        <v>Abstand zwischen der Schachtwand und Kabinenschwelle ist nicht grösser als 20mm ?</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>x</v>
+      </c>
+      <c r="D407" t="str">
+        <v>14.6</v>
+      </c>
+      <c r="E407" t="str">
+        <v>3 03.24</v>
+      </c>
+      <c r="F407" t="str">
+        <v>7.5.1</v>
+      </c>
+      <c r="G407" t="str">
+        <v>Weist die innere Oberfläche der Türen Vertiefungen bzw. Vorsprünge von max. 3 mm auf ?</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>x</v>
+      </c>
+      <c r="D408" t="str">
+        <v>14.7</v>
+      </c>
+      <c r="E408" t="str">
+        <v>5 01.3</v>
+      </c>
+      <c r="F408" t="str">
+        <v>7.1</v>
+      </c>
+      <c r="G408" t="str">
+        <v>Beträgt das Spiel zwischen Türflügel und -pfosten, Türsturz und -schwelle</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="G409" t="str">
+        <v>im geschlossenen Zustand mindestens 3 mm und höchstens 6 mm? (10 mm bei Verschleiss)</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="C410" t="str">
+        <v>x</v>
+      </c>
+      <c r="D410" t="str">
+        <v>14.8</v>
+      </c>
+      <c r="E410" t="str">
+        <v>5 06.22</v>
+      </c>
+      <c r="F410" t="str">
+        <v>7.2.3.5</v>
+      </c>
+      <c r="G410" t="str">
+        <v>Verfügen die Glasfelder über eine geeignete Kennzeichnung (Hersteller, Marke, Glastyp,</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="G411" t="str">
+        <v>Glasstärke)?</v>
+      </c>
+      <c r="M411" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="C412" t="str">
+        <v>x</v>
+      </c>
+      <c r="D412" t="str">
+        <v>14.9</v>
+      </c>
+      <c r="E412" t="str">
+        <v>5 07.42</v>
+      </c>
+      <c r="F412" t="str">
+        <v>7.7.6.2</v>
+      </c>
+      <c r="G412" t="str">
+        <v>Ist eine Kontrolle der Schliessposition der nicht verriegelten Türflügel vorhanden?</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>x</v>
+      </c>
+      <c r="D413" t="str">
+        <v>14.10</v>
+      </c>
+      <c r="E413" t="str">
+        <v>5 07.13</v>
+      </c>
+      <c r="F413" t="str">
+        <v>7.7.4</v>
+      </c>
+      <c r="G413" t="str">
+        <v xml:space="preserve">Wurden die Türkontakte aller Schachttüren dahingehend überprüft, dass sie die </v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="G414" t="str">
+        <v>Fahrkorbbewegung bei sich öffnenden Türen verhindern?</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>x</v>
+      </c>
+      <c r="D415" t="str">
+        <v>14.11</v>
+      </c>
+      <c r="E415" t="str">
+        <v>5 07.231</v>
+      </c>
+      <c r="F415" t="str">
+        <v>7.7.3.2</v>
+      </c>
+      <c r="G415" t="str">
+        <v>Kann an jedem Etagenpodest mindestens eine Schachttüre mit Hilfe eines Sicherheitsschlüssels</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="G416" t="str">
+        <v>von aussen geöffnet werden? (Dreikantschlüssel).</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>x</v>
+      </c>
+      <c r="D417" t="str">
+        <v>14.12</v>
+      </c>
+      <c r="E417" t="str">
+        <v>5 08</v>
+      </c>
+      <c r="F417" t="str">
+        <v>7.7.3.2</v>
+      </c>
+      <c r="G417" t="str">
+        <v>Ist die automatische Türschliessvorrichtung korrekt eingestellt?</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>x</v>
+      </c>
+      <c r="D418" t="str">
+        <v>14.13</v>
+      </c>
+      <c r="G418" t="str">
+        <v>Beträgt das Spiel zwischen den einzelnen Entriegelungsrollen und dem mobilen</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="G419" t="str">
+        <v>Nocken zwischen min. 5 mm und max. 10 mm?</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>x</v>
+      </c>
+      <c r="D420" t="str">
+        <v>14.14</v>
+      </c>
+      <c r="G420" t="str">
+        <v>Wurden die Türanschläge montiert und überprüft?</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>x</v>
+      </c>
+      <c r="D421" t="str">
+        <v>14.15</v>
+      </c>
+      <c r="E421" t="str">
+        <v>5 07.2</v>
+      </c>
+      <c r="F421" t="str">
+        <v>7.7</v>
+      </c>
+      <c r="G421" t="str">
+        <v>Entspricht das Spiel der Schliessvorrichtung den Montageanweisungen? Wird der Sicher-</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="G422" t="str">
+        <v>heitsstromkreis durch Ziehen oder Drücken an der geschlossenen Tür nicht unterbrochen?</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>15. GEGENGEWICHT</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>+</v>
+      </c>
+      <c r="B424" t="str">
+        <v>-</v>
+      </c>
+      <c r="C424" t="str">
+        <v>N</v>
+      </c>
+      <c r="E424" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F424" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="E425" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F425" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>x</v>
+      </c>
+      <c r="D426">
+        <v>15.1</v>
+      </c>
+      <c r="G426" t="str">
+        <v>Ist das Gegengewicht sauber?</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>x</v>
+      </c>
+      <c r="D427" t="str">
+        <v>15.2</v>
+      </c>
+      <c r="G427" t="str">
+        <v>Ist das Gegengewicht im Lot aufgehängt?</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>x</v>
+      </c>
+      <c r="D428" t="str">
+        <v>15.3</v>
+      </c>
+      <c r="G428" t="str">
+        <v xml:space="preserve">Umlenkscheibe  ∅: </v>
+      </c>
+      <c r="P428">
+        <v>400</v>
+      </c>
+      <c r="R428" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="G429" t="str">
+        <v>Ist die Rillenanzahl korrekt?</v>
+      </c>
+      <c r="P429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="E430" t="str">
+        <v>6 11.2</v>
+      </c>
+      <c r="F430" t="str">
+        <v>8.18.2</v>
+      </c>
+      <c r="G430" t="str">
+        <v>Verfügen die Scheiben über Schutzvorrichtungen?</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>x</v>
+      </c>
+      <c r="D431" t="str">
+        <v>15.4</v>
+      </c>
+      <c r="E431" t="str">
+        <v>6 11.1</v>
+      </c>
+      <c r="F431" t="str">
+        <v>8.18.1</v>
+      </c>
+      <c r="G431" t="str">
+        <v>Sind die einseln Blöcke des Gegengewichts Verriegeln gegen Herabfallen gesichert?</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>x</v>
+      </c>
+      <c r="D432" t="str">
+        <v>15.5</v>
+      </c>
+      <c r="E432" t="str">
+        <v>A6 02.5</v>
+      </c>
+      <c r="F432" t="str">
+        <v>D.2.h.3</v>
+      </c>
+      <c r="G432" t="str">
+        <v>Entspricht die Lastverteilung den Herstelleranweisungen?</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="G433" t="str">
+        <v>Ist der Ausgleichswert in % für die Nennlast korrekt?</v>
+      </c>
+      <c r="S433">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>x</v>
+      </c>
+      <c r="D434" t="str">
+        <v>15.6</v>
+      </c>
+      <c r="G434" t="str">
+        <v>Beträgt das Spiel der Gleitführungen und Gegengewichtrollen zwischen 2 und 3 mm?</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>x</v>
+      </c>
+      <c r="D435" t="str">
+        <v>15.7</v>
+      </c>
+      <c r="E435" t="str">
+        <v>7 01 / 7 03</v>
+      </c>
+      <c r="F435" t="str">
+        <v>9.2.3.1 / 9.5</v>
+      </c>
+      <c r="G435" t="str">
+        <v>Sind die Gegenmuttern der Seilaufhängungen festgezogen, versplintet und mit einem</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="G436" t="str">
+        <v>System zur Verhinderung von Verwindungen ausgestattet?</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>x</v>
+      </c>
+      <c r="D437" t="str">
+        <v>15.8</v>
+      </c>
+      <c r="G437" t="str">
+        <v>Sind die automatischen Schmiervorrichtungen montiert und eingestellt?</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="C438" t="str">
+        <v>x</v>
+      </c>
+      <c r="D438" t="str">
+        <v>15.9</v>
+      </c>
+      <c r="E438" t="str">
+        <v>7 04</v>
+      </c>
+      <c r="F438" t="str">
+        <v>9.6</v>
+      </c>
+      <c r="G438" t="str">
+        <v>Wurden geeignete Ausgleichsketten bzw. -seile montiert?</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="G439" t="str">
+        <v>Art der Ausgleichsketten bzw. -seile je nach Hersteller:</v>
+      </c>
+      <c r="S439" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="C440" t="str">
+        <v>x</v>
+      </c>
+      <c r="D440" t="str">
+        <v>15.10</v>
+      </c>
+      <c r="G440" t="str">
+        <v>Wurden die Holzblocks zum Ausgleich der Seildehnung korrekt installiert &amp; festgesogen ?</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>x</v>
+      </c>
+      <c r="D441" t="str">
+        <v>15.11</v>
+      </c>
+      <c r="E441" t="str">
+        <v>Gemass EN</v>
+      </c>
+      <c r="F441" t="str">
+        <v>11.3</v>
+      </c>
+      <c r="G441" t="str">
+        <v>Beträgt der Abstand zwischen Fahrkorb und Gegengewicht mindestens 50 mm?</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>16. SCHACHT</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>+</v>
+      </c>
+      <c r="B443" t="str">
+        <v>-</v>
+      </c>
+      <c r="C443" t="str">
+        <v>N</v>
+      </c>
+      <c r="E443" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F443" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="E444" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F444" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>x</v>
+      </c>
+      <c r="D445">
+        <v>16.1</v>
+      </c>
+      <c r="E445" t="str">
+        <v>3 08</v>
+      </c>
+      <c r="F445" t="str">
+        <v>5.9</v>
+      </c>
+      <c r="G445" t="str">
+        <v>Liefert die Schachtbeleuchtung 1000 mm über dem Fahrkorbdach und dem Grubenboden eine</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="G446" t="str">
+        <v xml:space="preserve">Lichtintensität von mind. 50 Lux? Mit Lampen, die weniger als 500 mm vom Grubenboden und </v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="G447" t="str">
+        <v>vom Schachtkopf entfernt sind?</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>x</v>
+      </c>
+      <c r="D448" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="E448" t="str">
+        <v>3 05 42</v>
+      </c>
+      <c r="F448" t="str">
+        <v xml:space="preserve">13.6.2 / </v>
+      </c>
+      <c r="G448" t="str">
+        <v>Ist in der Grube eine Steckdose vorhanden?</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="F449" t="str">
+        <v>5.7.3.4.b</v>
+      </c>
+      <c r="G449" t="str">
+        <v>Siehe EN 81.1 referenz 5.7.3.4.b</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>x</v>
+      </c>
+      <c r="D450" t="str">
+        <v>16.3</v>
+      </c>
+      <c r="E450" t="str">
+        <v>3 02.2</v>
+      </c>
+      <c r="F450" t="str">
+        <v>5.2.1.1</v>
+      </c>
+      <c r="G450" t="str">
+        <v>Sind in einem völlig umschlossenen Schacht nur die zulässigen Öffnungen verfügbar?</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="C451" t="str">
+        <v>x</v>
+      </c>
+      <c r="D451" t="str">
+        <v>16.4</v>
+      </c>
+      <c r="E451" t="str">
+        <v>3 02.12</v>
+      </c>
+      <c r="F451" t="str">
+        <v>5.3.1.2</v>
+      </c>
+      <c r="G451" t="str">
+        <v>Sind die Glasplatten in für Personen zugänglichen Bereichen aus Verbundglas?</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="C452" t="str">
+        <v>x</v>
+      </c>
+      <c r="D452" t="str">
+        <v>16.5</v>
+      </c>
+      <c r="E452" t="str">
+        <v>3 10.3</v>
+      </c>
+      <c r="F452" t="str">
+        <v>5.6.1</v>
+      </c>
+      <c r="G452" t="str">
+        <v>Ist der Bewegungsraum des Gegengewichts durch eine feste Ablenkplatte geschützt?</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="C453" t="str">
+        <v>x</v>
+      </c>
+      <c r="D453" t="str">
+        <v>16.6</v>
+      </c>
+      <c r="E453" t="str">
+        <v>3 10.4</v>
+      </c>
+      <c r="F453" t="str">
+        <v>5.6.2.1</v>
+      </c>
+      <c r="G453" t="str">
+        <v>Besteht bei Schächten mit mehreren Aufzügen eine Trennung zwischen den Anlagen</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="G454" t="str">
+        <v>in der Grube bis zu einer Höhe von 2,50 m über dem tiefsten Etagenpodest?</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="C455" t="str">
+        <v>x</v>
+      </c>
+      <c r="D455" t="str">
+        <v>16.7</v>
+      </c>
+      <c r="E455" t="str">
+        <v>3 10.4</v>
+      </c>
+      <c r="F455" t="str">
+        <v>5.6.2.2</v>
+      </c>
+      <c r="G455" t="str">
+        <v>Besteht eine Trennung über die gesamte Schachthöhe, wenn die Distanz zwischen dem</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="G456" t="str">
+        <v>Fahrkorbdachrand und einem bewegl. Teil eines angrenzenden Aufzugs &lt; 500 mm beträgt?</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>x</v>
+      </c>
+      <c r="D457" t="str">
+        <v>16.8</v>
+      </c>
+      <c r="E457" t="str">
+        <v>3 09</v>
+      </c>
+      <c r="F457" t="str">
+        <v>5.8</v>
+      </c>
+      <c r="G457" t="str">
+        <v>Ist der Schacht völlig frei von nicht zum Aufzug gehörenden Fremdkörpern?</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="C458" t="str">
+        <v>x</v>
+      </c>
+      <c r="D458" t="str">
+        <v>16.9</v>
+      </c>
+      <c r="E458" t="str">
+        <v>3 02.23 / 27</v>
+      </c>
+      <c r="F458" t="str">
+        <v>5.2.2</v>
+      </c>
+      <c r="G458" t="str">
+        <v>Entsprechen die Wartungstüren oder -klappen den Anforderungen?</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="C459" t="str">
+        <v>x</v>
+      </c>
+      <c r="D459" t="str">
+        <v>16.10</v>
+      </c>
+      <c r="E459" t="str">
+        <v>3 02.12</v>
+      </c>
+      <c r="F459" t="str">
+        <v>5.2.1.2</v>
+      </c>
+      <c r="G459" t="str">
+        <v>Sind die weiteren Anforderungen für teilweise umschlossene Schächte erfüllt?</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>x</v>
+      </c>
+      <c r="D460" t="str">
+        <v>16.11</v>
+      </c>
+      <c r="E460" t="str">
+        <v>3 06</v>
+      </c>
+      <c r="F460" t="str">
+        <v>5.2.3</v>
+      </c>
+      <c r="G460" t="str">
+        <v>Entspricht die Schachtbelüftung dem Anordnungsplan?</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>x</v>
+      </c>
+      <c r="D461" t="str">
+        <v>16.12</v>
+      </c>
+      <c r="G461" t="str">
+        <v>Sind die Impulsgeber gemäss den Montageanweisungen ausgerichtet und befestigt?</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>17. INNENRAUM DER KABINE</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>+</v>
+      </c>
+      <c r="B463" t="str">
+        <v>-</v>
+      </c>
+      <c r="C463" t="str">
+        <v>N</v>
+      </c>
+      <c r="E463" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F463" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="E464" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F464" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>x</v>
+      </c>
+      <c r="D465">
+        <v>17.1</v>
+      </c>
+      <c r="G465" t="str">
+        <v>Stimmt die Fahrkorbausrüstung mit der Bestellung überein (Materialschein)?</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" t="str">
+        <v>x</v>
+      </c>
+      <c r="D466">
+        <v>17.2</v>
+      </c>
+      <c r="E466" t="str">
+        <v>11 02.13</v>
+      </c>
+      <c r="F466" t="str">
+        <v>15.9</v>
+      </c>
+      <c r="G466" t="str">
+        <v>Stimmen die Kabinenrüfsknöpfe &amp; Etagenanzeigen mit den Bezeichnungen der Etagen überein?</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>x</v>
+      </c>
+      <c r="D467" t="str">
+        <v>17.3</v>
+      </c>
+      <c r="E467" t="str">
+        <v>6 03</v>
+      </c>
+      <c r="F467" t="str">
+        <v>15.2.1 /</v>
+      </c>
+      <c r="G467" t="str">
+        <v>Sind die Angaben zu Nennlast, max. Personenzahl, Herstellername, Identifikationsnummer</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="E468" t="str">
+        <v>12 02</v>
+      </c>
+      <c r="F468" t="str">
+        <v>15.2.2</v>
+      </c>
+      <c r="G468" t="str">
+        <v>im Fahrkorb vorhanden?</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>x</v>
+      </c>
+      <c r="D469" t="str">
+        <v>17.4</v>
+      </c>
+      <c r="G469" t="str">
+        <v>Sind die Decke, der Boden und die Wände sauber und wurden die</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="G470" t="str">
+        <v>Kunststoffschutzelemente entfernt?</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>x</v>
+      </c>
+      <c r="D471" t="str">
+        <v>17.5</v>
+      </c>
+      <c r="E471" t="str">
+        <v>11 02.7</v>
+      </c>
+      <c r="F471" t="str">
+        <v>14.2.3.3</v>
+      </c>
+      <c r="G471" t="str">
+        <v>Ist eine Notrufvorrichtung zur bidirektionalen Sprachkommunikation mit Notdienst vorhanden ?</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>x</v>
+      </c>
+      <c r="D472" t="str">
+        <v>17.6</v>
+      </c>
+      <c r="E472" t="str">
+        <v>6 03</v>
+      </c>
+      <c r="F472" t="str">
+        <v>14.2.5</v>
+      </c>
+      <c r="G472" t="str">
+        <v>Funktioniert die Überlastkontrolle (akustisch, optisch, offene Türe)?</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>x</v>
+      </c>
+      <c r="D473" t="str">
+        <v>17.7</v>
+      </c>
+      <c r="E473" t="str">
+        <v>6 10</v>
+      </c>
+      <c r="F473" t="str">
+        <v>8.17</v>
+      </c>
+      <c r="G473" t="str">
+        <v>Funktioniert die Hauptbeleuchtung &amp; Notbeleuchtung der Kabine vorschriftsmässig?.</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>x</v>
+      </c>
+      <c r="D474" t="str">
+        <v>17.8</v>
+      </c>
+      <c r="E474" t="str">
+        <v>6 09</v>
+      </c>
+      <c r="F474" t="str">
+        <v>8.16</v>
+      </c>
+      <c r="G474" t="str">
+        <v>Ist im Fahrkorb eine ausreichende Belüftung vorhanden?</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="C475" t="str">
+        <v>x</v>
+      </c>
+      <c r="D475" t="str">
+        <v>17.9</v>
+      </c>
+      <c r="E475" t="str">
+        <v>6 07</v>
+      </c>
+      <c r="F475" t="str">
+        <v>8.12</v>
+      </c>
+      <c r="G475" t="str">
+        <v>Entsprechen die Nottüren und -klappen den Anforderungen?</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>18. ETAGENPODESTKNÖPFE UND - ANZEIGEN</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>+</v>
+      </c>
+      <c r="B477" t="str">
+        <v>-</v>
+      </c>
+      <c r="C477" t="str">
+        <v>N</v>
+      </c>
+      <c r="E477" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F477" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="E478" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F478" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="C479" t="str">
+        <v>x</v>
+      </c>
+      <c r="D479" t="str">
+        <v>18.1</v>
+      </c>
+      <c r="E479" t="str">
+        <v>12 04.2</v>
+      </c>
+      <c r="F479" t="str">
+        <v>15.5.3</v>
+      </c>
+      <c r="G479" t="str">
+        <v>Ist bei Lastaufzügen die Angabe der Nennlast von jedem Etagenpodest aus sichtbar?</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>x</v>
+      </c>
+      <c r="D480" t="str">
+        <v>18.2</v>
+      </c>
+      <c r="G480" t="str">
+        <v>Funktionieren die Druckknöpfe, Quittier- und Etagenanzeigelampen korrekt?</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="C481" t="str">
+        <v>x</v>
+      </c>
+      <c r="D481" t="str">
+        <v>18.3</v>
+      </c>
+      <c r="G481" t="str">
+        <v>Wurden die Positionsanzeigen gemäss Installationsplan montiert?</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="C482" t="str">
+        <v>x</v>
+      </c>
+      <c r="D482" t="str">
+        <v>18.4</v>
+      </c>
+      <c r="E482" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G482" t="str">
+        <v>Wurden die Richtungs- bzw. Ankunftsanzeigen überprüft?</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>x</v>
+      </c>
+      <c r="D483" t="str">
+        <v>18.5</v>
+      </c>
+      <c r="E483" t="str">
+        <v>11 02.72</v>
+      </c>
+      <c r="G483" t="str">
+        <v>Ist die Alarmsirene von der aussenseite des Schachtaussenseite  identifizierbar?</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>x</v>
+      </c>
+      <c r="D484" t="str">
+        <v>18.6</v>
+      </c>
+      <c r="E484" t="str">
+        <v>AEAI</v>
+      </c>
+      <c r="F484" t="str">
+        <v>AEAI</v>
+      </c>
+      <c r="G484" t="str">
+        <v>Funktioniert die Brandfallsteuerung?</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v xml:space="preserve">19. UNTER DEM FAHRKORB </v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>+</v>
+      </c>
+      <c r="B486" t="str">
+        <v>-</v>
+      </c>
+      <c r="C486" t="str">
+        <v>N</v>
+      </c>
+      <c r="E486" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F486" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="E487" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F487" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="C488" t="str">
+        <v>x</v>
+      </c>
+      <c r="D488" t="str">
+        <v>19.1</v>
+      </c>
+      <c r="E488" t="str">
+        <v>7 02.1</v>
+      </c>
+      <c r="G488" t="str">
+        <v>Durchmesser der Ablenksrollen Korrekt ?</v>
+      </c>
+      <c r="R488" t="str">
+        <v>-</v>
+      </c>
+      <c r="T488" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="G489" t="str">
+        <v>Rillenanzahl der Ablenksrollen Korrekt ?</v>
+      </c>
+      <c r="R489" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="E490" t="str">
+        <v>7 05</v>
+      </c>
+      <c r="F490" t="str">
+        <v>8.18.2</v>
+      </c>
+      <c r="G490" t="str">
+        <v>Verfügen die Scheiben über Schutzvorrichtungen?</v>
+      </c>
+      <c r="R490" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>x</v>
+      </c>
+      <c r="D491" t="str">
+        <v>19.2</v>
+      </c>
+      <c r="G491" t="str">
+        <v>Sind die Hangekabel korrekt und gemäss Montageplan befestigt?</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>x</v>
+      </c>
+      <c r="D492" t="str">
+        <v>19.3</v>
+      </c>
+      <c r="G492" t="str">
+        <v>Beträgt das Spiel der Fahrkorbgleitführungen zwischen 1 und 3 mm?</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>x</v>
+      </c>
+      <c r="D493" t="str">
+        <v>19.4</v>
+      </c>
+      <c r="E493" t="str">
+        <v>7 04</v>
+      </c>
+      <c r="F493" t="str">
+        <v>9.6</v>
+      </c>
+      <c r="G493" t="str">
+        <v>Ausgleichskette oder -seile isoliert und korrekt gesichert, Zustand geprüft</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>x</v>
+      </c>
+      <c r="D494" t="str">
+        <v>19.5</v>
+      </c>
+      <c r="G494" t="str">
+        <v>Magnetschaltern sind im Lot und  gemäss Herstellervorschriften montiert</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>x</v>
+      </c>
+      <c r="D495" t="str">
+        <v>19.6</v>
+      </c>
+      <c r="G495" t="str">
+        <v>Sind die untere Teilen der Kabine sauber?</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>x</v>
+      </c>
+      <c r="D496" t="str">
+        <v>19.7</v>
+      </c>
+      <c r="G496" t="str">
+        <v xml:space="preserve">Die Pufferkontaktplatten sind montiert und zu den Puffern in der Grube ausgerichtet. </v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="C497" t="str">
+        <v>x</v>
+      </c>
+      <c r="D497" t="str">
+        <v>19.8</v>
+      </c>
+      <c r="G497" t="str">
+        <v>Sind die Sprung Sicherheitsbolzen des Fahrkorbs isoliert?</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>x</v>
+      </c>
+      <c r="D498" t="str">
+        <v>19.9</v>
+      </c>
+      <c r="E498" t="str">
+        <v>Gemass EN</v>
+      </c>
+      <c r="F498" t="str">
+        <v>5.10</v>
+      </c>
+      <c r="G498" t="str">
+        <v>Ist der Alarmsystem zur Befreiung von in der Grube eingeschlossenen Personen wirksam ?</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>20. AUFZUGSGRUBE</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>+</v>
+      </c>
+      <c r="B500" t="str">
+        <v>-</v>
+      </c>
+      <c r="C500" t="str">
+        <v>N</v>
+      </c>
+      <c r="E500" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F500" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="E501" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F501" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>x</v>
+      </c>
+      <c r="D502" t="str">
+        <v>20.1</v>
+      </c>
+      <c r="E502" t="str">
+        <v>3 08</v>
+      </c>
+      <c r="F502" t="str">
+        <v>13.6.3.2 /</v>
+      </c>
+      <c r="G502" t="str">
+        <v>Kann die Schachtbeleuchtung von der Grube &amp; Maschinenraum ein &amp; aus geschalten werden?</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>x</v>
+      </c>
+      <c r="D503" t="str">
+        <v>20.2</v>
+      </c>
+      <c r="E503" t="str">
+        <v>3 05.41</v>
+      </c>
+      <c r="F503" t="str">
+        <v>14.2.2.1 /</v>
+      </c>
+      <c r="G503" t="str">
+        <v>Steht ein Notaus-Schalter in einem Umkreis von max. 0,75 m von den Innenseite des</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="E504" t="str">
+        <v>3 05 42</v>
+      </c>
+      <c r="F504" t="str">
+        <v>5.7.3.4</v>
+      </c>
+      <c r="G504" t="str">
+        <v xml:space="preserve">Türrahmens zur Verfügung? (bei Grube ≤160 cm, Höhe PES max. 200 cm vom Grubenboden </v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="G505" t="str">
+        <v>und max. 40 cm über Etagenpodest), gemäss WWJSSS?</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>x</v>
+      </c>
+      <c r="D506" t="str">
+        <v>20.3</v>
+      </c>
+      <c r="E506" t="str">
+        <v>3 05 42</v>
+      </c>
+      <c r="F506" t="str">
+        <v>13.6.2</v>
+      </c>
+      <c r="G506" t="str">
+        <v>Ist in der Grube eine Steckdose vorhanden?</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>x</v>
+      </c>
+      <c r="D507" t="str">
+        <v>20.4</v>
+      </c>
+      <c r="E507" t="str">
+        <v>3 05.3</v>
+      </c>
+      <c r="F507" t="str">
+        <v>5.7.3.2</v>
+      </c>
+      <c r="G507" t="str">
+        <v>Erfüllt der Grubenzugang die Anforderungen, ist die Grubenzugangsleiter vorhanden?</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>x</v>
+      </c>
+      <c r="D508" t="str">
+        <v>20.5</v>
+      </c>
+      <c r="E508" t="str">
+        <v>3 09</v>
+      </c>
+      <c r="F508" t="str">
+        <v>5.8</v>
+      </c>
+      <c r="G508" t="str">
+        <v>Ist der Schacht völlig frei von Fremdkörpern die nicht zum Aufzug gehören ?</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="G509" t="str">
+        <v>Ist der Grubenboden trocken und sauber?</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>x</v>
+      </c>
+      <c r="D510" t="str">
+        <v>20.6</v>
+      </c>
+      <c r="G510" t="str">
+        <v>Sind die Ölauffangbehälter unter den Führungen installiert?</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>x</v>
+      </c>
+      <c r="D511" t="str">
+        <v>20.7</v>
+      </c>
+      <c r="G511" t="str">
+        <v>Sind alle Warnschilder in der Aufzugsgrube montiert?</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>x</v>
+      </c>
+      <c r="D512" t="str">
+        <v>20.8</v>
+      </c>
+      <c r="E512" t="str">
+        <v>3 05.41</v>
+      </c>
+      <c r="F512" t="str">
+        <v>5.7.3.4 /</v>
+      </c>
+      <c r="G512" t="str">
+        <v>Ist der Notaus-Schalter in der Grube korrekt platziert und funktionsfähig?</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>x</v>
+      </c>
+      <c r="D513" t="str">
+        <v>20.9</v>
+      </c>
+      <c r="E513" t="str">
+        <v>11 02.22</v>
+      </c>
+      <c r="F513" t="str">
+        <v>14.2.1.2.a) 3)</v>
+      </c>
+      <c r="G513" t="str">
+        <v xml:space="preserve">Ist der Überwachungsschalter des Positionierungsband PRS,funktionsfähig ? ( ADO  / RLEV ) </v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="C514" t="str">
+        <v>X</v>
+      </c>
+      <c r="D514" t="str">
+        <v>20.10</v>
+      </c>
+      <c r="E514" t="str">
+        <v>3 05.11</v>
+      </c>
+      <c r="G514" t="str">
+        <v>Funktioniert das elektrische Wassereintritt-Warnsystem?</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>x</v>
+      </c>
+      <c r="D515" t="str">
+        <v>20.11</v>
+      </c>
+      <c r="G515" t="str">
+        <v>Sind die richtigen Fahrkorbpuffer installiert?</v>
+      </c>
+      <c r="P515" t="str">
+        <v>Wurde der Ölstand kontrolliert?</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="G516" t="str">
+        <v xml:space="preserve">Teilereferenznummer: </v>
+      </c>
+      <c r="M516" t="str">
+        <v>ACLA DE51065</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="G517" t="str">
+        <v xml:space="preserve">Prüfbescheinigungsnummer: </v>
+      </c>
+      <c r="M517" t="str">
+        <v>300401L1</v>
+      </c>
+      <c r="Q517" t="str">
+        <v>Prüfstelle :</v>
+      </c>
+      <c r="S517" t="str">
+        <v>CE0036</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>x</v>
+      </c>
+      <c r="D518" t="str">
+        <v>20.12</v>
+      </c>
+      <c r="E518" t="str">
+        <v>8 02.234</v>
+      </c>
+      <c r="F518" t="str">
+        <v>10.4.3.4</v>
+      </c>
+      <c r="G518" t="str">
+        <v>Wird die Normalposition der Hydraulikpuffer von einer elekt. Sicherheitsvorrichtung überprüft?</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>x</v>
+      </c>
+      <c r="D519" t="str">
+        <v>20.13</v>
+      </c>
+      <c r="G519" t="str">
+        <v>Sind die richtigen Gegengewichtspuffer installiert?</v>
+      </c>
+      <c r="P519" t="str">
+        <v>Wurde der Ölstand kontrolliert?</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="G520" t="str">
+        <v xml:space="preserve">Teilereferenznummer: </v>
+      </c>
+      <c r="M520" t="str">
+        <v xml:space="preserve">ACLA DE51065 </v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="F521" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G521" t="str">
+        <v xml:space="preserve">Prüfbescheinigungsnummer: </v>
+      </c>
+      <c r="M521" t="str">
+        <v>300401L1</v>
+      </c>
+      <c r="Q521" t="str">
+        <v>Prüfstelle :</v>
+      </c>
+      <c r="S521" t="str">
+        <v>CE0036</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>x</v>
+      </c>
+      <c r="D522" t="str">
+        <v>20.14</v>
+      </c>
+      <c r="E522" t="str">
+        <v>8 02</v>
+      </c>
+      <c r="F522" t="str">
+        <v>5.7.3.3</v>
+      </c>
+      <c r="G522" t="str">
+        <v>Distanz zwischen horizontalem Fahrkorb und Puffer:</v>
+      </c>
+      <c r="S522">
+        <v>229</v>
+      </c>
+      <c r="U522" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="G523" t="str">
+        <v>Durchbiegung Puffer, gemessen:</v>
+      </c>
+      <c r="S523">
+        <v>70</v>
+      </c>
+      <c r="U523" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>x</v>
+      </c>
+      <c r="D524">
+        <v>20.15</v>
+      </c>
+      <c r="E524" t="str">
+        <v>3 05.2</v>
+      </c>
+      <c r="F524" t="str">
+        <v>5.7.3.3</v>
+      </c>
+      <c r="G524" t="str">
+        <v xml:space="preserve">Werden bei Aufsitzen des Kabine auf den vollständig komprimierten Puffern die </v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="G525" t="str">
+        <v>Sicherheitsabstände gemäss den nachfolgend beschriebenen Bedingungen eingehalten?</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="C527" t="str">
+        <v>x</v>
+      </c>
+      <c r="D527">
+        <v>20.16</v>
+      </c>
+      <c r="E527" t="str">
+        <v>a) Vert. Abstand vom dem höchsten Punkt eines grubenseitig installierten Bauteils zum FK</v>
+      </c>
+      <c r="S527" t="str">
+        <v>-</v>
+      </c>
+      <c r="U527" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>x</v>
+      </c>
+      <c r="D528">
+        <v>20.17</v>
+      </c>
+      <c r="E528" t="str">
+        <v>b) Vert. Abstand vom Grubenboden zum tiefsten Punkt des Fahrkorbbogens</v>
+      </c>
+      <c r="S528">
+        <v>709</v>
+      </c>
+      <c r="U528" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="D529">
+        <v>20.18</v>
+      </c>
+      <c r="E529" t="str">
+        <v>c) Vert. Abstand vom Grubenboden zu den unter dem FK installierten Komponenten</v>
+      </c>
+      <c r="S529">
+        <v>377</v>
+      </c>
+      <c r="U529" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>x</v>
+      </c>
+      <c r="D530" t="str">
+        <v>20.19</v>
+      </c>
+      <c r="E530" t="str">
+        <v>3 05.211</v>
+      </c>
+      <c r="F530" t="str">
+        <v>5.7.3.3.a</v>
+      </c>
+      <c r="G530" t="str">
+        <v>Passt in den Sicherheitsraum unter dem Kabine ein rechtwinkligen Prismas von den Mindest-</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="G531" t="str">
+        <v xml:space="preserve">Abmessungen von EN 81.1= 500 x 600 x 1000 mm / SIA 370.10 = 500 x 600 x 800mm </v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>x</v>
+      </c>
+      <c r="D532">
+        <v>20.2</v>
+      </c>
+      <c r="E532" t="str">
+        <v>8 03.311</v>
+      </c>
+      <c r="F532" t="str">
+        <v>10.5.1</v>
+      </c>
+      <c r="G532" t="str">
+        <v>Ist der Sicherheitsendschalter korrekt platziert, verriegelt und von gelber Farbe?</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="G533" t="str">
+        <v>Abstand vom äussersten Tiefstand bis zum Auslösepunkt</v>
+      </c>
+      <c r="S533">
+        <v>45</v>
+      </c>
+      <c r="U533" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>x</v>
+      </c>
+      <c r="D534" t="str">
+        <v>20.21</v>
+      </c>
+      <c r="E534" t="str">
+        <v>3 11</v>
+      </c>
+      <c r="F534" t="str">
+        <v>5.5</v>
+      </c>
+      <c r="G534" t="str">
+        <v>Wurden bei unter der Grube befindlicher Räumlichkeiten alle Sicherheitsmassnahmen getroffen?</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>x</v>
+      </c>
+      <c r="D535" t="str">
+        <v>20.22</v>
+      </c>
+      <c r="E535" t="str">
+        <v>8 02.22</v>
+      </c>
+      <c r="F535" t="str">
+        <v>D.2.I.1</v>
+      </c>
+      <c r="G535" t="str">
+        <v xml:space="preserve">Energiespeicherpuffer: der Fahrkorb mit seiner Nennlast sitzt auf den Puffern auf;  </v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="G536" t="str">
+        <v>entspricht die  Hub des Puffers bei lockeren Seilen den Herstellerangaben?</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>x</v>
+      </c>
+      <c r="D537" t="str">
+        <v>20.23</v>
+      </c>
+      <c r="E537" t="str">
+        <v>8 02.23</v>
+      </c>
+      <c r="F537" t="str">
+        <v>D.2.I.2</v>
+      </c>
+      <c r="G537" t="str">
+        <v>Energiespeicherpuffer mit Umkehrdämpfung und Dissipation: tritt keinerlei Verformung</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="G538" t="str">
+        <v xml:space="preserve">auf, wenn die Kabine mit Nutzlast und Nenngeschwindigkeit in Kontakt mit den Puffern kommt? </v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>21. BETRIEBS- UND SICHERHEITSPRÜFPUNKTE</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>+</v>
+      </c>
+      <c r="B540" t="str">
+        <v>-</v>
+      </c>
+      <c r="C540" t="str">
+        <v>N</v>
+      </c>
+      <c r="E540" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F540" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="E541" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F541" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>x</v>
+      </c>
+      <c r="D542" t="str">
+        <v>21.1</v>
+      </c>
+      <c r="G542" t="str">
+        <v>Entspricht die Bündigstellung dem OTIS-Qualitätsstandard? (Phase1, I08-010FS)</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>x</v>
+      </c>
+      <c r="D543" t="str">
+        <v>21.2</v>
+      </c>
+      <c r="G543" t="str">
+        <v>Entspricht der Betriebskomfort dem OTIS-Qualitätsstandard? (im Zweifelsfalle</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="G544" t="str">
+        <v>PMT-Messung)</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>x</v>
+      </c>
+      <c r="D545" t="str">
+        <v>21.3</v>
+      </c>
+      <c r="E545" t="str">
+        <v>10 01 / 10 02</v>
+      </c>
+      <c r="F545" t="str">
+        <v>14.1.1.1d</v>
+      </c>
+      <c r="G545" t="str">
+        <v>Wurde die Sicherheitsschaltung getestet, um im Falle eines Erdungsisolationsfehlers die</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="G546" t="str">
+        <v>sofortige Abschaltung der Anlage auszulösen?</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>x</v>
+      </c>
+      <c r="D547" t="str">
+        <v>21.4</v>
+      </c>
+      <c r="E547" t="str">
+        <v>11 01.11</v>
+      </c>
+      <c r="F547" t="str">
+        <v>14.1.1.1j</v>
+      </c>
+      <c r="G547" t="str">
+        <v>Wurde die FunktionsSIA.370/10 des Phasenumkehrschutzes durchgeführt?</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="C548" t="str">
+        <v>x</v>
+      </c>
+      <c r="D548" t="str">
+        <v>21.5</v>
+      </c>
+      <c r="E548" t="str">
+        <v>11 02.5</v>
+      </c>
+      <c r="F548" t="str">
+        <v>14.2.1.5.</v>
+      </c>
+      <c r="G548" t="str">
+        <v>Funktioniert die Rampenfahrtsteuerung korrekt?</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>x</v>
+      </c>
+      <c r="D549" t="str">
+        <v>21.6</v>
+      </c>
+      <c r="E549" t="str">
+        <v>11 02.2</v>
+      </c>
+      <c r="F549" t="str">
+        <v>14.2.1.2</v>
+      </c>
+      <c r="G549" t="str">
+        <v>Funktioniert das Bündigstellungs- und Nachregulierungsverfahren bei geöffneten Türen korrekt?</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>22. STROM- UND GESCHWINDIGKEITSMESSUNGEN</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>+</v>
+      </c>
+      <c r="B551" t="str">
+        <v>-</v>
+      </c>
+      <c r="C551" t="str">
+        <v>N</v>
+      </c>
+      <c r="E551" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F551" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="E552" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F552" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>x</v>
+      </c>
+      <c r="N553" t="str">
+        <v>Nennwert</v>
+      </c>
+      <c r="Q553" t="str">
+        <v>Gemessener Wert</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="D554">
+        <v>22.1</v>
+      </c>
+      <c r="E554" t="str">
+        <v>A 6 02 7</v>
+      </c>
+      <c r="F554" t="str">
+        <v>D.2.e</v>
+      </c>
+      <c r="G554" t="str">
+        <v>Spannung Netzversorgung:</v>
+      </c>
+      <c r="N554">
+        <v>400</v>
+      </c>
+      <c r="Q554">
+        <v>392.9</v>
+      </c>
+      <c r="S554" t="str">
+        <v>Volt AC</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="G555" t="str">
+        <v>Spannung Steuerkreis:</v>
+      </c>
+      <c r="N555">
+        <v>24</v>
+      </c>
+      <c r="Q555">
+        <v>24.27</v>
+      </c>
+      <c r="S555" t="str">
+        <v>Volt DC</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="G556" t="str">
+        <v>Spannung Sicherheitssteuerkreis:</v>
+      </c>
+      <c r="N556">
+        <v>50</v>
+      </c>
+      <c r="Q556">
+        <v>49.2</v>
+      </c>
+      <c r="S556" t="str">
+        <v>Volt DC</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>x</v>
+      </c>
+      <c r="D557" t="str">
+        <v>22.2</v>
+      </c>
+      <c r="E557" t="str">
+        <v>A 6 02 7</v>
+      </c>
+      <c r="F557" t="str">
+        <v>D.2.e</v>
+      </c>
+      <c r="G557" t="str">
+        <v>Strommessung</v>
+      </c>
+      <c r="K557" t="str">
+        <v>aufwärts, leer:</v>
+      </c>
+      <c r="Q557">
+        <v>4.6</v>
+      </c>
+      <c r="S557" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="K558" t="str">
+        <v>abwärts, leer:</v>
+      </c>
+      <c r="Q558">
+        <v>6.18</v>
+      </c>
+      <c r="S558" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="K559" t="str">
+        <v>aufwärts, ausgeglichen:</v>
+      </c>
+      <c r="Q559">
+        <v>5.93</v>
+      </c>
+      <c r="S559" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="K560" t="str">
+        <v>abwärts, ausgeglichen:</v>
+      </c>
+      <c r="Q560">
+        <v>4.99</v>
+      </c>
+      <c r="S560" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="K561" t="str">
+        <v>aufwärts, bei Volllast:</v>
+      </c>
+      <c r="Q561">
+        <v>6.8</v>
+      </c>
+      <c r="S561" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="K562" t="str">
+        <v>abwärts, bei Volllast:</v>
+      </c>
+      <c r="Q562">
+        <v>4.7</v>
+      </c>
+      <c r="S562" t="str">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>x</v>
+      </c>
+      <c r="D563" t="str">
+        <v>22.3</v>
+      </c>
+      <c r="E563" t="str">
+        <v>A 6 02 7</v>
+      </c>
+      <c r="F563">
+        <v>12.6</v>
+      </c>
+      <c r="G563" t="str">
+        <v>Messung der Geschwindigkeit aufwärts, ausgeglichen:</v>
+      </c>
+      <c r="Q563">
+        <v>0.63</v>
+      </c>
+      <c r="S563" t="str">
+        <v>m/s</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="G564" t="str">
+        <v>Messung der Geschwindigkeit abwärts, ausgeglichen:</v>
+      </c>
+      <c r="Q564">
+        <v>0.62</v>
+      </c>
+      <c r="S564" t="str">
+        <v>m/s</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>23. FANGVORRICHTUNGEN UND FANGPRÜFUNG</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>+</v>
+      </c>
+      <c r="B566" t="str">
+        <v>-</v>
+      </c>
+      <c r="C566" t="str">
+        <v>N</v>
+      </c>
+      <c r="E566" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F566" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="E567" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F567" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>x</v>
+      </c>
+      <c r="D568">
+        <v>23.1</v>
+      </c>
+      <c r="G568" t="str">
+        <v>Korrekte Kabine-Fangvorrichtung installiert?</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="G569" t="str">
+        <v xml:space="preserve">Teilereferenznummer: </v>
+      </c>
+      <c r="M569" t="str">
+        <v>Bestehend</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="G570" t="str">
+        <v xml:space="preserve">Prüfbescheinigungsnummer: </v>
+      </c>
+      <c r="M570" t="str">
+        <v>-</v>
+      </c>
+      <c r="Q570" t="str">
+        <v>Prüfstelle</v>
+      </c>
+      <c r="S570" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>x</v>
+      </c>
+      <c r="D571">
+        <v>23.2</v>
+      </c>
+      <c r="G571" t="str">
+        <v>Ist das Gestänge der Fahrkorb-Fangvorrichtung sauber; keine harten Stellen (Reiben);</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="G572" t="str">
+        <v>ist es leicht geölt und versplintet?</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="C573" t="str">
+        <v>x</v>
+      </c>
+      <c r="D573" t="str">
+        <v>23.3</v>
+      </c>
+      <c r="E573" t="str">
+        <v>A 6 02.12</v>
+      </c>
+      <c r="F573" t="str">
+        <v>D.2.j.2</v>
+      </c>
+      <c r="G573" t="str">
+        <v xml:space="preserve">Stoppt die Fangvorrichtung mit verzögertem Ansprechen (v&gt; 1m/s) die Kabine mit 125% der </v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="G574" t="str">
+        <v xml:space="preserve">Last und mit Nenngeschwindigkeit in Abwärtsrichtung bei Auslösung durch den </v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="G575" t="str">
+        <v>Geschwindigkeitsbegrenzer ?</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>x</v>
+      </c>
+      <c r="D576" t="str">
+        <v>23.4</v>
+      </c>
+      <c r="E576" t="str">
+        <v>A 6 02.122 1</v>
+      </c>
+      <c r="F576" t="str">
+        <v>D.2.j.1</v>
+      </c>
+      <c r="G576" t="str">
+        <v>Stoppt die Fangvorrichtung mit sofortigem Ansprechen (v ≤ 1m/s) die Kabine bei Abwärts-</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="G577" t="str">
+        <v xml:space="preserve">fahrt bei Auslösung durch den Geschwindigkeitsbegrenzer, wenn die Kabine mit der Nennlast </v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="G578" t="str">
+        <v>und mit Nenngeschwindigkeit fährt?</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>x</v>
+      </c>
+      <c r="D579" t="str">
+        <v>23.5</v>
+      </c>
+      <c r="E579" t="str">
+        <v>A 6 02.123</v>
+      </c>
+      <c r="F579" t="str">
+        <v>9.8.7</v>
+      </c>
+      <c r="G579" t="str">
+        <v>Die Neigung des Kabinenbodens ist weniger dann 5% gegenüber die original Ausgangsposition</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>x</v>
+      </c>
+      <c r="D580" t="str">
+        <v>23.6</v>
+      </c>
+      <c r="E580" t="str">
+        <v>A 6 02.123</v>
+      </c>
+      <c r="F580" t="str">
+        <v>D.2.j</v>
+      </c>
+      <c r="G580" t="str">
+        <v>Keine Beschädigung, die den normalen Aufzugseinsatz gefährden könnte?</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="C581" t="str">
+        <v>x</v>
+      </c>
+      <c r="D581" t="str">
+        <v>23.7</v>
+      </c>
+      <c r="G581" t="str">
+        <v>Ist die Gegengewicht-Fangvorrichtung korrekt installiert?</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="G582" t="str">
+        <v xml:space="preserve">Teilereferenznummer: </v>
+      </c>
+      <c r="M582" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="G583" t="str">
+        <v xml:space="preserve">Prüfbescheinigungsnummer: </v>
+      </c>
+      <c r="M583" t="str">
+        <v>-</v>
+      </c>
+      <c r="Q583" t="str">
+        <v>Prüfstelle</v>
+      </c>
+      <c r="S583" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="C584" t="str">
+        <v>x</v>
+      </c>
+      <c r="D584" t="str">
+        <v>23.8</v>
+      </c>
+      <c r="G584" t="str">
+        <v>Ist das Gestänge der Gegengewicht-Fangvorrichtung sauber; keine harten Stellen (Reiben);</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="G585" t="str">
+        <v>ist es leicht geölt und versplintet?</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="C586" t="str">
+        <v>x</v>
+      </c>
+      <c r="D586" t="str">
+        <v>23.9</v>
+      </c>
+      <c r="E586" t="str">
+        <v>A 6 02.13</v>
+      </c>
+      <c r="F586" t="str">
+        <v>D.2.k</v>
+      </c>
+      <c r="G586" t="str">
+        <v xml:space="preserve">Stoppt die Fangvorrichtung mit verzögertem bzw. sofortigem Ansprechen das Abwärtsfahrende </v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="G587" t="str">
+        <v>Gegengewicht bei  Auslösung durch den Geschwindigkeitsbegrenzer, wenn der Fahrkorb</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="G588" t="str">
+        <v>mit Nenngeschwindigkeit fährt?</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="C589" t="str">
+        <v>x</v>
+      </c>
+      <c r="D589" t="str">
+        <v>23.10</v>
+      </c>
+      <c r="E589" t="str">
+        <v>A 6 02.13</v>
+      </c>
+      <c r="F589" t="str">
+        <v>D.2.k</v>
+      </c>
+      <c r="G589" t="str">
+        <v>Keine Beschädigung, die den normalen Aufzugseinsatz gefährden könnte?</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>24.SCHUTZEINRICHTUNG für die AUFWÄRTS FAHRENDE KABINE gegen ÜBERGESCHWINDIKEIT</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>+</v>
+      </c>
+      <c r="B591" t="str">
+        <v>-</v>
+      </c>
+      <c r="C591" t="str">
+        <v>N</v>
+      </c>
+      <c r="E591" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F591" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="E592" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F592" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>x</v>
+      </c>
+      <c r="D593">
+        <v>24.1</v>
+      </c>
+      <c r="G593" t="str">
+        <v xml:space="preserve">Teilereferenznummer: </v>
+      </c>
+      <c r="M593" t="str">
+        <v>Mayr Roba Twinstop</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="G594" t="str">
+        <v xml:space="preserve">Prüfbescheinigungsnummer: </v>
+      </c>
+      <c r="M594" t="str">
+        <v>350-8012.11213S</v>
+      </c>
+      <c r="Q594" t="str">
+        <v>Prüfstelle</v>
+      </c>
+      <c r="S594" t="str">
+        <v>CE0036 EU-BD 845/3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>x</v>
+      </c>
+      <c r="D595">
+        <v>24.2</v>
+      </c>
+      <c r="E595" t="str">
+        <v>Selon EN 81</v>
+      </c>
+      <c r="F595" t="str">
+        <v>9.10.1</v>
+      </c>
+      <c r="G595" t="str">
+        <v>Funktioniert diese Schutzvorrichtung bei Aufwärtsfahrt, wenn die Kabine mit Max. 115%</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="G596" t="str">
+        <v>der Nenngeschwindigkeit fährt? Wird die Kabine Geschwindigkeit reduziert, auf die maximale</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="G597" t="str">
+        <v>Geschwindigkeit ab, für die Geschwindigkeit der Gegengewichtpuffer vorgesehen ist ?</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>x</v>
+      </c>
+      <c r="D598">
+        <v>24.3</v>
+      </c>
+      <c r="E598" t="str">
+        <v>Selon EN 81</v>
+      </c>
+      <c r="F598" t="str">
+        <v>9.10.5</v>
+      </c>
+      <c r="G598" t="str">
+        <v>Löst diese Schutzvorrichtung bei Auslösung eine elektrische Sicherheitsvorrichtung aus?</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>x</v>
+      </c>
+      <c r="D599">
+        <v>24.4</v>
+      </c>
+      <c r="E599" t="str">
+        <v>Selon EN 81</v>
+      </c>
+      <c r="F599" t="str">
+        <v>D.2.j</v>
+      </c>
+      <c r="G599" t="str">
+        <v>Liegt keine Beschädigung vor, die den normalen Aufzugseinsatz gefährden könnte?</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v xml:space="preserve">25. BESONDERE ANFORDERUNGEN </v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>+</v>
+      </c>
+      <c r="B601" t="str">
+        <v>-</v>
+      </c>
+      <c r="C601" t="str">
+        <v>N</v>
+      </c>
+      <c r="E601" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F601" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="E602" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F602" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>26. SCHUTZMASSNAHMEN AN AUFZÜGE OHNE KABINENTÜREN</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>+</v>
+      </c>
+      <c r="B607" t="str">
+        <v>-</v>
+      </c>
+      <c r="C607" t="str">
+        <v>N</v>
+      </c>
+      <c r="E607" t="str">
+        <v>Norm</v>
+      </c>
+      <c r="F607" t="str">
+        <v>Norm</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="E608" t="str">
+        <v>SIA.370/10</v>
+      </c>
+      <c r="F608" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="C609" t="str">
+        <v>x</v>
+      </c>
+      <c r="D609" t="str">
+        <v>26.1</v>
+      </c>
+      <c r="E609" t="str">
+        <v>3 03.21</v>
+      </c>
+      <c r="F609" t="str">
+        <v>nicht Anwendbär</v>
+      </c>
+      <c r="G609" t="str">
+        <v xml:space="preserve">Die Schachtwand vor dem Kabinenzugang muss mit den Schachttüren über die ganze </v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="G610" t="str">
+        <v xml:space="preserve">Eingangsbreite der Kabine + 25mm </v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="C611" t="str">
+        <v>x</v>
+      </c>
+      <c r="D611" t="str">
+        <v>26.2</v>
+      </c>
+      <c r="E611" t="str">
+        <v>3 03.24</v>
+      </c>
+      <c r="F611" t="str">
+        <v>nicht Anwendbär</v>
+      </c>
+      <c r="G611" t="str">
+        <v xml:space="preserve">Waagrechte Abstand zwischen der Schachtwand vor der Kabinenschwellen, den senkrechten </v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="G612" t="str">
+        <v>Kanten sowie dem oberen Abschluss des Kabinenzugangs darf nicht grösser als 20mm sein.</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="C613" t="str">
+        <v>x</v>
+      </c>
+      <c r="D613" t="str">
+        <v>26.3</v>
+      </c>
+      <c r="E613" t="str">
+        <v>6 06.1/2</v>
+      </c>
+      <c r="F613" t="str">
+        <v>nicht Anwendbär</v>
+      </c>
+      <c r="G613" t="str">
+        <v>Lichtschränke oder gleichwertigen Einrichtung auszurüsten, welche den Aufzug stillsetz, wenn</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="G614" t="str">
+        <v xml:space="preserve">Gefahr des Einklemmens von Personen oder Gütern zwischen Kabinenschwellen und </v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="G615" t="str">
+        <v xml:space="preserve">Schachtwand besteht. Die Axe des Schutzstrahles höchstens 30mm über dem Kabinenboden </v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="G616" t="str">
+        <v>und in einem Abstand von 40-60mm von der Kabinenschwellen Befindet.</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="C617" t="str">
+        <v>x</v>
+      </c>
+      <c r="D617" t="str">
+        <v>26.4</v>
+      </c>
+      <c r="E617" t="str">
+        <v>6 06.3</v>
+      </c>
+      <c r="F617" t="str">
+        <v>nicht Anwendbär</v>
+      </c>
+      <c r="G617" t="str">
+        <v xml:space="preserve">Nach Ansprechung der Einrichtung darf ein neue Fahrt nur von der Kabine aus eingeleitet </v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="G618" t="str">
+        <v>werden können. Bei Einrichtung Fehler darf keine neue Fahrt eingeleitet werden können.</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="C619" t="str">
+        <v>x</v>
+      </c>
+      <c r="D619" t="str">
+        <v>26.5</v>
+      </c>
+      <c r="E619" t="str">
+        <v>11.02.63</v>
+      </c>
+      <c r="F619" t="str">
+        <v>nicht Anwendbär</v>
+      </c>
+      <c r="G619" t="str">
+        <v xml:space="preserve">In der Kabine muss ein Haltschalter vorhanden sein, sofern eine oder mehere Zugänge </v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="G620" t="str">
+        <v>aufweist, die nicht mit wollwandigen Türen volldtändig abgeschlossen sind.</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="C621" t="str">
+        <v>x</v>
+      </c>
+      <c r="D621" t="str">
+        <v>26.6</v>
+      </c>
+      <c r="E621" t="str">
+        <v>11.02.65</v>
+      </c>
+      <c r="F621" t="str">
+        <v>nicht Anwendbär</v>
+      </c>
+      <c r="G621" t="str">
+        <v>Haltschalter müssen als Druckschalter mit Raststellung oder als Kippschalter ausgebildet sein.</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="G622" t="str">
+        <v>Der Druckschalter muss mit der Bezeichnung "STOP" versehen sein. Beim Kippschalter ist</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="G623" t="str">
+        <v>für die Ausschalten die Aufschrift "STOP"anzubrigen.Betätigungsorgane müssen Rot sein.</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>27. AUZÜGE MIT TROMMEL ODER KETTENANTRIEB</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>+</v>
+      </c>
+      <c r="B625" t="str">
+        <v>-</v>
+      </c>
+      <c r="C625" t="str">
+        <v>N</v>
+      </c>
+      <c r="E625" t="str">
+        <v>Norme</v>
+      </c>
+      <c r="F625" t="str">
+        <v>Norme</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="E626" t="str">
+        <v>SIA 370 / 10</v>
+      </c>
+      <c r="F626" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="C627" t="str">
+        <v>x</v>
+      </c>
+      <c r="D627" t="str">
+        <v>27.1</v>
+      </c>
+      <c r="E627" t="str">
+        <v>3 04 21</v>
+      </c>
+      <c r="F627" t="str">
+        <v>5.7.2.1</v>
+      </c>
+      <c r="G627" t="str">
+        <v>Bei Kabine am obersten Halt muss der Weg in Aufwärtsrichtung bis zu Puffer mindestens</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="G628" t="str">
+        <v>500mm betragen, Abmessung =</v>
+      </c>
+      <c r="M628" t="str">
+        <v>-</v>
+      </c>
+      <c r="P628" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="C629" t="str">
+        <v>x</v>
+      </c>
+      <c r="D629">
+        <v>27.2</v>
+      </c>
+      <c r="E629" t="str">
+        <v>3 04 22</v>
+      </c>
+      <c r="F629" t="str">
+        <v>5.7.2.2</v>
+      </c>
+      <c r="G629" t="str">
+        <v xml:space="preserve">Bei Puffer vollständig zusammengedrückt, müssen die 3 Bedingungen gleichzeitig erfüllt sein. </v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="C630" t="str">
+        <v>x</v>
+      </c>
+      <c r="E630" t="str">
+        <v>3 04 222</v>
+      </c>
+      <c r="F630" t="str">
+        <v>5.7.2.2.a)</v>
+      </c>
+      <c r="G630" t="str">
+        <v>Der freie Abstand zwinschen Schachtdecke / allfälligen Einbauten und dem Kabinendach</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="G631" t="str">
+        <v xml:space="preserve">muss mindestens :EN 81.1 = 1000mm / SIA 370 / 10 = 700mm, Abmessung </v>
+      </c>
+      <c r="T631" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="E632" t="str">
+        <v>3 04 223</v>
+      </c>
+      <c r="F632" t="str">
+        <v>5.7.2.2.b)</v>
+      </c>
+      <c r="G632" t="str">
+        <v>Freie Abstand zwischen der Schachtdecke bzw allfälligen Einbauten und über dem :</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="G633" t="str">
+        <v>1)</v>
+      </c>
+      <c r="H633" t="str">
+        <v>Kabinendach angeordeneten Teilen wie ( Joch, Rollen, Türantrieb ) muss mindestens</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="H634" t="str">
+        <v>EN 81.1 = 300mm / SIA 370 / 10 = 400mm, Abmessug :</v>
+      </c>
+      <c r="T634" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="E635" t="str">
+        <v>3 04 221</v>
+      </c>
+      <c r="G635" t="str">
+        <v>2)</v>
+      </c>
+      <c r="H635" t="str">
+        <v xml:space="preserve">Höchsten Teilen der Führungsschuhe / Rollen , Befestigung der Tragmittel, oder vertical  </v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="H636" t="str">
+        <v xml:space="preserve">Schiebtüren  muss mindestens  100mm betragen, Abmessung : </v>
+      </c>
+      <c r="T636" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="E637" t="str">
+        <v>3 04 222</v>
+      </c>
+      <c r="F637" t="str">
+        <v>5.7.2.2.c)</v>
+      </c>
+      <c r="G637" t="str">
+        <v>Passt in den Sicherheitsraum über dem Kabine ein rechtwinkligen Prismas von den Mindesens-</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="G638" t="str">
+        <v xml:space="preserve">  EN 81.1 = 500 x 600 x 800 mm / SIA 370 / 10 =H = 0.7 x 0.12m2</v>
+      </c>
+      <c r="T638" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="C639" t="str">
+        <v>x</v>
+      </c>
+      <c r="D639">
+        <v>27.3</v>
+      </c>
+      <c r="E639" t="str">
+        <v>3 04 23</v>
+      </c>
+      <c r="F639" t="str">
+        <v>5.7.2.3</v>
+      </c>
+      <c r="G639" t="str">
+        <v>Liegt Kabine auf vollständig zusammengedruckten Puffern auf, so muss bei Kettenantrieb noch</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="G640" t="str">
+        <v>der geführte Weg des  GGW Aufwärtsrichtung mindestens 300mm betragen :</v>
+      </c>
+      <c r="T640" t="str">
+        <v>mm</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="C641" t="str">
+        <v>x</v>
+      </c>
+      <c r="D641">
+        <v>27.4</v>
+      </c>
+      <c r="E641" t="str">
+        <v>7 02 1</v>
+      </c>
+      <c r="F641" t="str">
+        <v>9.2.1</v>
+      </c>
+      <c r="G641" t="str">
+        <v>Nenndurchmesser der Treibscheiben, Trommeln, Rollen muss mindestens 40 x D der Tragseile</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="C642" t="str">
+        <v>x</v>
+      </c>
+      <c r="D642">
+        <v>27.5</v>
+      </c>
+      <c r="E642" t="str">
+        <v>7 02 2</v>
+      </c>
+      <c r="F642" t="str">
+        <v>9.22.c)</v>
+      </c>
+      <c r="G642" t="str">
+        <v>Seile müssen mindestens mit einem Sicherheitskoeffizient von :12 ab 3 Seile / 16 falls 2 Seile</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="C643" t="str">
+        <v>x</v>
+      </c>
+      <c r="D643">
+        <v>27.6</v>
+      </c>
+      <c r="E643" t="str">
+        <v>7 01 3</v>
+      </c>
+      <c r="F643" t="str">
+        <v>9.2.3.2</v>
+      </c>
+      <c r="G643" t="str">
+        <v xml:space="preserve">Es sind mindestens 2 Tragmittel zu verwenden.Sie müssen so befestig sein, dass bei Bruch  </v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="G644" t="str">
+        <v>eines Stranges die Tragfähigheit des anderen Strange (s) erhalten bleibt.</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="C645" t="str">
+        <v>x</v>
+      </c>
+      <c r="D645" t="str">
+        <v>27.7</v>
+      </c>
+      <c r="E645" t="str">
+        <v>9 03 4</v>
+      </c>
+      <c r="F645" t="str">
+        <v>9.4.1</v>
+      </c>
+      <c r="G645" t="str">
+        <v>Sind die Rillen der Trommel an die Seile Durchmesser angepasst ?</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="C646" t="str">
+        <v>x</v>
+      </c>
+      <c r="D646" t="str">
+        <v>27.8</v>
+      </c>
+      <c r="E646" t="str">
+        <v>9 03 3</v>
+      </c>
+      <c r="F646" t="str">
+        <v>9.4.2</v>
+      </c>
+      <c r="G646" t="str">
+        <v>Kabine auf vollgedruckten Puffern, sind noch 1.5 Windungen in der Rillen der Trommel ?</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="C647" t="str">
+        <v>x</v>
+      </c>
+      <c r="D647" t="str">
+        <v>27.9</v>
+      </c>
+      <c r="E647" t="str">
+        <v>9 03 4</v>
+      </c>
+      <c r="F647" t="str">
+        <v>9.4.3</v>
+      </c>
+      <c r="G647" t="str">
+        <v>Sind die Seile nur in einer Lage auf die Trommel gewickelt ?</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="C648" t="str">
+        <v>x</v>
+      </c>
+      <c r="D648" t="str">
+        <v>27.10</v>
+      </c>
+      <c r="E648" t="str">
+        <v>9 03 5</v>
+      </c>
+      <c r="F648" t="str">
+        <v>9.4.4</v>
+      </c>
+      <c r="G648" t="str">
+        <v xml:space="preserve">Winkel zwischen dem auf die Trommel auflaufenden Seil und Rillen darf nicht 4°überschreiten. </v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="C649" t="str">
+        <v>x</v>
+      </c>
+      <c r="D649">
+        <v>27.11</v>
+      </c>
+      <c r="E649" t="str">
+        <v>8 04 4</v>
+      </c>
+      <c r="F649">
+        <v>12.9</v>
+      </c>
+      <c r="G649" t="str">
+        <v>Sicherheitseinrichtung wenn bei Fahrt der Kabine / GGW die Tragmittel schlaff werden?</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="C650" t="str">
+        <v>x</v>
+      </c>
+      <c r="D650" t="str">
+        <v>27.12</v>
+      </c>
+      <c r="E650" t="str">
+        <v>8 03</v>
+      </c>
+      <c r="F650" t="str">
+        <v>10.5.2.2</v>
+      </c>
+      <c r="G650" t="str">
+        <v>Betätigung der Notendschalt Einrichtung ?</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="H651" t="str">
+        <v>a) Durch ein Vorrichtung die mit der Maschinen verbunden ist ?</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="H652" t="str">
+        <v>b) Durch die Kabine und das Gegengewicht am oberen Ende der Fahrbahn?</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="H653" t="str">
+        <v>c) Durch die Kabine am obere &amp; unteren Ende der Fahrbahn ( Falls ohne Gegengewicht )</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="C654" t="str">
+        <v>x</v>
+      </c>
+      <c r="D654" t="str">
+        <v>27.13</v>
+      </c>
+      <c r="E654" t="str">
+        <v>8 03 22</v>
+      </c>
+      <c r="F654" t="str">
+        <v>10.5.3.1</v>
+      </c>
+      <c r="G654" t="str">
+        <v xml:space="preserve">Die Notenschalt-Einrichtungen müssen die Maschine stillsetzen durch direkt betätige Kontakte. </v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v>28. MASCHINENRAUM ABMESSUNGEN</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>+</v>
+      </c>
+      <c r="B656" t="str">
+        <v>-</v>
+      </c>
+      <c r="C656" t="str">
+        <v>N</v>
+      </c>
+      <c r="E656" t="str">
+        <v>Norme</v>
+      </c>
+      <c r="F656" t="str">
+        <v>Norme</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="E657" t="str">
+        <v>SIA 370 / 10</v>
+      </c>
+      <c r="F657" t="str">
+        <v>EN 81-1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v>x</v>
+      </c>
+      <c r="D658" t="str">
+        <v>28.1</v>
+      </c>
+      <c r="E658" t="str">
+        <v>4 03 21</v>
+      </c>
+      <c r="F658" t="str">
+        <v>6.3.2</v>
+      </c>
+      <c r="G658" t="str">
+        <v xml:space="preserve">Teile für Prüfung, Wartung, und Notbetrieb sind gefahrlos und leicht erreichtbare ? </v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v>x</v>
+      </c>
+      <c r="D659">
+        <v>28.2</v>
+      </c>
+      <c r="E659" t="str">
+        <v>4 03 23</v>
+      </c>
+      <c r="F659" t="str">
+        <v>6.3.2.1</v>
+      </c>
+      <c r="G659" t="str">
+        <v>Die freie Höhe über der waagrechten Fläche und dem Zugang darf nicht kleiner als 2 m sein.</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="G660" t="str">
+        <v>Vor Teilen, die geprüft und gewartet werden müssen, sowie für den Notbetrieb muss eine freie</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="G661" t="str">
+        <v>waagrechte Fläche von 0.5 x 0.6 m vorhanden sein.</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="str">
+        <v>x</v>
+      </c>
+      <c r="D662">
+        <v>28.3</v>
+      </c>
+      <c r="E662" t="str">
+        <v>4 03 23</v>
+      </c>
+      <c r="F662" t="str">
+        <v>6.3.2.2</v>
+      </c>
+      <c r="G662" t="str">
+        <v xml:space="preserve">Der Zugang zu dieser Fläche muss  mindestens 0.5m breit sein und die freie Höhe 1,80m.  Befinden sich in diesem Bereich keine beweglichen Teile, genugt eine Breite von 0.4 m Als freie Höhe ist der Abstand der Decke / Träger,/ Licht... auf denen Personen sich bewegen. </v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="str">
+        <v>x</v>
+      </c>
+      <c r="D665">
+        <v>28.4</v>
+      </c>
+      <c r="E665" t="str">
+        <v>4 03 24</v>
+      </c>
+      <c r="F665" t="str">
+        <v>6.3.2.3</v>
+      </c>
+      <c r="G665" t="str">
+        <v>Über ungesschützten drehenden Teilen ist ein freier Raum von mindestens 0.3m.</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="str">
+        <v>29. ISOLATIONSMESSUNGEN</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="str">
+        <v>Messprotokoll für Aufzüge                   gemäss OIBT / Art. 24, 25</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="str">
+        <v>Anlage-Nr.</v>
+      </c>
+      <c r="F672">
+        <f>(O16)</f>
+        <v>0</v>
+      </c>
+      <c r="K672" t="str">
+        <v xml:space="preserve">Anlagentyp:  </v>
+      </c>
+      <c r="O672" t="str">
+        <f>(F23)</f>
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="str">
+        <v xml:space="preserve">Standort: </v>
+      </c>
+      <c r="F674">
+        <f>(O13)</f>
+        <v>0</v>
+      </c>
+      <c r="K674" t="str">
+        <v>Strasse:</v>
+      </c>
+      <c r="O674" t="str">
+        <v>Lindenstrasse 4</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="str">
+        <v>Sonstige Bezeichnungen: ........................................................................................................................................………..…</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="str">
+        <v xml:space="preserve">Geprüft durch (OTIS):  </v>
+      </c>
+      <c r="F678" t="str">
+        <v>István Faddi</v>
+      </c>
+      <c r="K678" t="str">
+        <v xml:space="preserve">Datum:  </v>
+      </c>
+      <c r="M678" t="str">
+        <v>05.12.2024</v>
+      </c>
+      <c r="R678" t="str">
+        <v xml:space="preserve">Visum:  </v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="O679" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="str">
+        <v xml:space="preserve">Geprüft durch (STI):  </v>
+      </c>
+      <c r="K680" t="str">
+        <v xml:space="preserve">Datum:  </v>
+      </c>
+      <c r="R680" t="str">
+        <v xml:space="preserve">Visum:  </v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="F681" t="str">
+        <v>(Prüfelektriker)</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="L683" t="str">
+        <v>ACHTUNG</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="E684" t="str">
+        <v>1. Die IsolationsSIA.370/10 erfolgt ohne elektronische Hilfsmittel und bei spannungsfrei geschalteter Anlage!</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="E685" t="str">
+        <v>2. Die Prüfung des inneren Widerstands bzw. des Kurzschlussstroms erfolgt, wenn am Abnehmer Spannung anliegt.</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="str">
+        <v>Pos.</v>
+      </c>
+      <c r="D688" t="str">
+        <v>Baugruppe</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="G689" t="str">
+        <v>Nennstrom</v>
+      </c>
+      <c r="J689" t="str">
+        <v>Merk-</v>
+      </c>
+      <c r="L689" t="str">
+        <v>1. ISOLATION</v>
+      </c>
+      <c r="P689" t="str">
+        <v>2. KURZ-</v>
+      </c>
+      <c r="S689" t="str">
+        <v>3. Fehlerstrom-</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="H690" t="str">
+        <v>(In)</v>
+      </c>
+      <c r="J690" t="str">
+        <v>mal</v>
+      </c>
+      <c r="P690" t="str">
+        <v>SCHLUSS-</v>
+      </c>
+      <c r="S690" t="str">
+        <v>schutzschalter</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="P691" t="str">
+        <v>STROM</v>
+      </c>
+      <c r="S691" t="str">
+        <v>FI</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="P692" t="str">
+        <v>(Icc)</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="L694" t="str">
+        <v>N-</v>
+      </c>
+      <c r="M694" t="str">
+        <v>L1-</v>
+      </c>
+      <c r="N694" t="str">
+        <v>L2-</v>
+      </c>
+      <c r="O694" t="str">
+        <v>L3-</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="G695" t="str">
+        <v>Sic</v>
+      </c>
+      <c r="I695" t="str">
+        <v>Aut</v>
+      </c>
+      <c r="J695" t="str">
+        <v>L-T-V..</v>
+      </c>
+      <c r="L695" t="str">
+        <v>PE</v>
+      </c>
+      <c r="M695" t="str">
+        <v>PE</v>
+      </c>
+      <c r="N695" t="str">
+        <v>PE</v>
+      </c>
+      <c r="O695" t="str">
+        <v>PE</v>
+      </c>
+      <c r="P695" t="str">
+        <v>L-N</v>
+      </c>
+      <c r="R695" t="str">
+        <v>L-PE</v>
+      </c>
+      <c r="S695" t="str">
+        <v>In</v>
+      </c>
+      <c r="T695" t="str">
+        <v>DIn</v>
+      </c>
+      <c r="U695" t="str">
+        <v>Test</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696">
+        <v>1</v>
+      </c>
+      <c r="D696" t="str">
+        <v>Antriebsmotor</v>
+      </c>
+      <c r="I696" t="str">
+        <v>C32 A</v>
+      </c>
+      <c r="J696" t="str">
+        <v>MS</v>
+      </c>
+      <c r="L696" t="str">
+        <v>∞</v>
+      </c>
+      <c r="M696" t="str">
+        <v>∞</v>
+      </c>
+      <c r="N696" t="str">
+        <v>∞</v>
+      </c>
+      <c r="O696" t="str">
+        <v>∞</v>
+      </c>
+      <c r="P696" t="str">
+        <v>643 A</v>
+      </c>
+      <c r="R696" t="str">
+        <v>662 A</v>
+      </c>
+      <c r="S696" t="str">
+        <v>-</v>
+      </c>
+      <c r="T696" t="str">
+        <v>-</v>
+      </c>
+      <c r="U696" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697">
+        <v>2</v>
+      </c>
+      <c r="D697" t="str">
+        <v>Türantriebsmotor 1</v>
+      </c>
+      <c r="G697" t="str">
+        <v>2 A</v>
+      </c>
+      <c r="J697" t="str">
+        <v>T</v>
+      </c>
+      <c r="L697" t="str">
+        <v>-</v>
+      </c>
+      <c r="M697" t="str">
+        <v>∞</v>
+      </c>
+      <c r="N697" t="str">
+        <v>∞</v>
+      </c>
+      <c r="O697" t="str">
+        <v>-</v>
+      </c>
+      <c r="P697" t="str">
+        <v>24 A</v>
+      </c>
+      <c r="R697" t="str">
+        <v>n.mb.</v>
+      </c>
+      <c r="S697" t="str">
+        <v>-</v>
+      </c>
+      <c r="T697" t="str">
+        <v>-</v>
+      </c>
+      <c r="U697" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698">
+        <v>3</v>
+      </c>
+      <c r="D698" t="str">
+        <v>Türantriebsmotor 2</v>
+      </c>
+      <c r="G698" t="str">
+        <v>2 A</v>
+      </c>
+      <c r="J698" t="str">
+        <v>T</v>
+      </c>
+      <c r="L698" t="str">
+        <v>-</v>
+      </c>
+      <c r="M698" t="str">
+        <v>∞</v>
+      </c>
+      <c r="N698" t="str">
+        <v>∞</v>
+      </c>
+      <c r="O698" t="str">
+        <v>-</v>
+      </c>
+      <c r="P698" t="str">
+        <v>25 A</v>
+      </c>
+      <c r="R698" t="str">
+        <v>n.mb.</v>
+      </c>
+      <c r="S698" t="str">
+        <v>-</v>
+      </c>
+      <c r="T698" t="str">
+        <v>-</v>
+      </c>
+      <c r="U698" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699">
+        <v>4</v>
+      </c>
+      <c r="D699" t="str">
+        <v>Motorgest. Ventil (hydr.)</v>
+      </c>
+      <c r="G699" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700">
+        <v>5</v>
+      </c>
+      <c r="D700" t="str">
+        <v>Bündigstellungsmotor</v>
+      </c>
+      <c r="G700" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701">
+        <v>6</v>
+      </c>
+      <c r="D701" t="str">
+        <v>Schachtsteckdose</v>
+      </c>
+      <c r="I701" t="str">
+        <v>B10 A</v>
+      </c>
+      <c r="J701" t="str">
+        <v>LS</v>
+      </c>
+      <c r="L701" t="str">
+        <v>∞</v>
+      </c>
+      <c r="M701" t="str">
+        <v>∞</v>
+      </c>
+      <c r="N701" t="str">
+        <v>-</v>
+      </c>
+      <c r="O701" t="str">
+        <v>-</v>
+      </c>
+      <c r="P701" t="str">
+        <v>462 A</v>
+      </c>
+      <c r="R701" t="str">
+        <v>453 A</v>
+      </c>
+      <c r="S701" t="str">
+        <v>34,1 ms</v>
+      </c>
+      <c r="T701" t="str">
+        <v>21 mA</v>
+      </c>
+      <c r="U701" t="str">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702">
+        <v>7</v>
+      </c>
+      <c r="D702" t="str">
+        <v>Schachtbeleuchtung</v>
+      </c>
+      <c r="I702" t="str">
+        <v>B6 A</v>
+      </c>
+      <c r="J702" t="str">
+        <v>LS</v>
+      </c>
+      <c r="L702" t="str">
+        <v>∞</v>
+      </c>
+      <c r="M702" t="str">
+        <v>∞</v>
+      </c>
+      <c r="N702" t="str">
+        <v>-</v>
+      </c>
+      <c r="O702" t="str">
+        <v>-</v>
+      </c>
+      <c r="P702" t="str">
+        <v>565 A</v>
+      </c>
+      <c r="R702" t="str">
+        <v>645 A</v>
+      </c>
+      <c r="S702" t="str">
+        <v>34,7 ms</v>
+      </c>
+      <c r="T702" t="str">
+        <v>21 mA</v>
+      </c>
+      <c r="U702" t="str">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703">
+        <v>8</v>
+      </c>
+      <c r="D703" t="str">
+        <v>PMS</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705">
+        <v>10</v>
+      </c>
+      <c r="D705" t="str">
+        <v>Steckdose MR.</v>
+      </c>
+      <c r="I705" t="str">
+        <v>B10 A</v>
+      </c>
+      <c r="J705" t="str">
+        <v>LS</v>
+      </c>
+      <c r="L705" t="str">
+        <v>∞</v>
+      </c>
+      <c r="M705" t="str">
+        <v>∞</v>
+      </c>
+      <c r="N705" t="str">
+        <v>-</v>
+      </c>
+      <c r="O705" t="str">
+        <v>-</v>
+      </c>
+      <c r="P705" t="str">
+        <v>666 A</v>
+      </c>
+      <c r="R705" t="str">
+        <v>552 A</v>
+      </c>
+      <c r="S705" t="str">
+        <v>34,5 ms</v>
+      </c>
+      <c r="T705" t="str">
+        <v>21 mA</v>
+      </c>
+      <c r="U705" t="str">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706">
+        <v>11</v>
+      </c>
+      <c r="D706" t="str">
+        <v>Fahrkorbbeleuchtung</v>
+      </c>
+      <c r="I706" t="str">
+        <v>B10 A</v>
+      </c>
+      <c r="J706" t="str">
+        <v>LS</v>
+      </c>
+      <c r="L706" t="str">
+        <v>∞</v>
+      </c>
+      <c r="M706" t="str">
+        <v>∞</v>
+      </c>
+      <c r="N706" t="str">
+        <v>-</v>
+      </c>
+      <c r="O706" t="str">
+        <v>-</v>
+      </c>
+      <c r="P706" t="str">
+        <v>131 A</v>
+      </c>
+      <c r="R706" t="str">
+        <v>194 A</v>
+      </c>
+      <c r="S706" t="str">
+        <v>33,9 ms</v>
+      </c>
+      <c r="T706" t="str">
+        <v>21 mA</v>
+      </c>
+      <c r="U706" t="str">
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707">
+        <v>12</v>
+      </c>
+      <c r="D707" t="str">
+        <v>Fotozelle</v>
+      </c>
+      <c r="G707" t="str">
+        <v>-</v>
+      </c>
+      <c r="I707" t="str">
+        <v>-</v>
+      </c>
+      <c r="J707" t="str">
+        <v>-</v>
+      </c>
+      <c r="L707" t="str">
+        <v>-</v>
+      </c>
+      <c r="M707" t="str">
+        <v>-</v>
+      </c>
+      <c r="N707" t="str">
+        <v>-</v>
+      </c>
+      <c r="O707" t="str">
+        <v>-</v>
+      </c>
+      <c r="P707" t="str">
+        <v>-</v>
+      </c>
+      <c r="R707" t="str">
+        <v>-</v>
+      </c>
+      <c r="S707" t="str">
+        <v>-</v>
+      </c>
+      <c r="T707" t="str">
+        <v>-</v>
+      </c>
+      <c r="U707" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="710" xml:space="preserve">
+      <c r="A710">
+        <v>15</v>
+      </c>
+      <c r="D710" t="str" xml:space="preserve">
+        <v xml:space="preserve">Weitestentfernter_x000d_
+Sicherheitskontakt</v>
+      </c>
+      <c r="G710" t="str">
+        <v>C 0,5 A</v>
+      </c>
+      <c r="J710" t="str">
+        <v>LS</v>
+      </c>
+      <c r="R710" t="str">
+        <v>nicht messb.</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="str">
+        <v xml:space="preserve">A = Mögliche Summe:         </v>
+      </c>
+      <c r="G715">
+        <f>COUNTA(A66:B77,A82:B120,A124:B149,A153:B163,A167:B170,A174:B184,A188:B207,A211:B227,A231:B247,A251:B272,A286:B291,A295:B304,A308:B332,A336:B357,A362:B395,A399:B422,A426:B441,A445:B461,A465:B475,A479:B484,A488:B498,A502:B525,A527:B538,A553:B564,A568:B589,A593:B599,A603:B605,A609:B623,A627:B654,A658:B665)</f>
+        <v>212</v>
+      </c>
+      <c r="J715" t="str">
+        <v xml:space="preserve">B = Erreichte Summe:            </v>
+      </c>
+      <c r="O715">
+        <f>G715-COUNTA(B66:B77,B82:B120,B124:B149,B153:B163,B167:B170,B174:B184,B188:B207,B211:B227,B231:B247,B251:B272,B286:B291,B295:B304,B308:B332,B336:B357,B362:B395,B399:B422,B426:B441,B445:B461,B465:B475,B479:B484,B488:B498,B502:B525,B527:B538,B553:B564,B568:B589,B593:B599,B603:B605,B609:B623,B627:B654,B658:B665)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="Y716">
+        <f>COUNTA(A66:B77,A82:B120,A124:B149,A153:B163,A167:B170,A174:B184,A188:B207,A211:B227,A231:B247,A251:B272,A286:B291,A295:B304,A308:B332,A336:B357,A362:B395,A399:B422,A426:B441,A445:B461,A465:B475,A479:B484,A488:B498,A502:B525,A527:B538,A553:B564,A568:B589,A593:B599,A603:B605,A609:B623,A627:B654,A658:B665)</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="str">
+        <v xml:space="preserve">C = Rating                                                     </v>
+      </c>
+      <c r="F717">
+        <f>100*O715/G715</f>
+        <v>97.16981132075472</v>
+      </c>
+      <c r="H717" t="str">
+        <v xml:space="preserve">=  100 X B : A  =   </v>
+      </c>
+      <c r="L717">
+        <f>F717</f>
+        <v>97.16981132075472</v>
+      </c>
+      <c r="Y717">
+        <f>COUNTA(B66:B77,B82:B120,B124:B149,B153:B163,B167:B170,B174:B184,B188:B207,B211:B227,B231:B247,B251:B272,B286:B291,B295:B304,B308:B332,B336:B357,B362:B395,B399:B422,B426:B441,B445:B461,B465:B475,B479:B484,B488:B498,B502:B525,B527:B538,B553:B564,B568:B589,B593:B599,B603:B605,B609:B623,B627:B654,B658:B665)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="str">
+        <v xml:space="preserve">FS-Code </v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720">
+        <v>1</v>
+      </c>
+      <c r="C720" t="str">
+        <v>Durch FN-Monteur auszuführende Arbeiten</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721">
+        <v>2</v>
+      </c>
+      <c r="C721" t="str">
+        <v>Durch FS-Servicetechniker auszuführende Arbeiten</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722">
+        <v>2</v>
+      </c>
+      <c r="C722" t="str">
+        <v>Durch FS-Reparaturservice auszuführende Arbeiten (nur mit OM)</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723">
+        <v>3</v>
+      </c>
+      <c r="C723" t="str">
+        <v>Vorschläge an Kunden (POG und L-Verträge)</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724">
+        <v>3</v>
+      </c>
+      <c r="C724" t="str">
+        <v>Kundenbemerkungen</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="str">
+        <v>Anmerkungen</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="str">
+        <v>N…,  BEX  ,Mod =</v>
+      </c>
+      <c r="F727" t="str">
+        <v>mindestens 90 Punkte</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="str">
+        <v xml:space="preserve">Neben den oben detailliert aufgeführten Punkten ist eine Sichtprüfung durchzuführen, </v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="str">
+        <v xml:space="preserve">um sicherzustellen, dass auch die Zusatzanforderungen der Norm EN81 / SIA 370 erfüllt </v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="str">
+        <v>und die anerkannten Regeln der Technik beachtet wurden.</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="str">
+        <v>Ref.</v>
+      </c>
+      <c r="E733" t="str">
+        <v>Erforderliche Nacharbeiten</v>
+      </c>
+      <c r="I733" t="str">
+        <v>Mangel</v>
+      </c>
+      <c r="K733" t="str">
+        <v>Zuständig</v>
+      </c>
+      <c r="N733" t="str">
+        <v xml:space="preserve">Beheben </v>
+      </c>
+      <c r="P733" t="str">
+        <v>Behoben am</v>
+      </c>
+      <c r="T733" t="str">
+        <v>Behoben durch</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="str">
+        <v xml:space="preserve">Nr. </v>
+      </c>
+      <c r="I734" t="str">
+        <v>gemäss SIA</v>
+      </c>
+      <c r="N734" t="str">
+        <v>bis</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="str">
+        <v xml:space="preserve">(des </v>
+      </c>
+      <c r="I735" t="str">
+        <v xml:space="preserve"> Ja   Nein</v>
+      </c>
+      <c r="S735" t="str">
+        <v>Unterschrift</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="str">
+        <v>Protokolls)</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="str">
+        <v>2.1</v>
+      </c>
+      <c r="D737" t="str">
+        <v xml:space="preserve">Das Maschinenraumschloss ist kein </v>
+      </c>
+      <c r="I737" t="str">
+        <v>x</v>
+      </c>
+      <c r="K737">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="D738" t="str">
+        <v xml:space="preserve">SAFOS-Einheitsschlüssel und hat keinen </v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="D739" t="str">
+        <v>innenliegenden Drehknopf.</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="str">
+        <v>2.14</v>
+      </c>
+      <c r="D740" t="str">
+        <v xml:space="preserve">Der Hebel zum Lüften der Bremse ist nicht </v>
+      </c>
+      <c r="I740" t="str">
+        <v>x</v>
+      </c>
+      <c r="K740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="D741" t="str">
+        <v xml:space="preserve">vorhanden,  so dass eine Notlüftung nicht </v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="D742" t="str">
+        <v>möglich ist.</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="str">
+        <v>2.23</v>
+      </c>
+      <c r="D743" t="str">
+        <v>Serviceheft ist nicht vorhanden</v>
+      </c>
+      <c r="I743" t="str">
+        <v>x</v>
+      </c>
+      <c r="K743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="str">
+        <v>8.10</v>
+      </c>
+      <c r="D744" t="str">
+        <v xml:space="preserve">Rücksetzen des Geschwindigkeitsbegrenzers </v>
+      </c>
+      <c r="I744" t="str">
+        <v>x</v>
+      </c>
+      <c r="K744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="D745" t="str">
+        <v xml:space="preserve">Auslösekontakt funktioniert nicht.		</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="str">
+        <v>9.19</v>
+      </c>
+      <c r="D746" t="str">
+        <v xml:space="preserve">Stehfläche auf dem Kabinendach nicht </v>
+      </c>
+      <c r="I746" t="str">
+        <v>x</v>
+      </c>
+      <c r="K746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="D747" t="str">
+        <v xml:space="preserve">zulässig	</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="str">
+        <v>17.2</v>
+      </c>
+      <c r="D748" t="str">
+        <v xml:space="preserve">Die Taste zum Öffnen der hinteren Tür ist </v>
+      </c>
+      <c r="I748" t="str">
+        <v>x</v>
+      </c>
+      <c r="K748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="D749" t="str">
+        <v>nicht funktionsfähig. (RDOB)</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="str">
+        <v xml:space="preserve">Erst nach Bereinigung aller Mängel im Sinne der Norm EN 81 / SIA 370 kann den Aufzug in Betrieb </v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="str">
+        <v>genommen werden.</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="str">
+        <v>Regionaldirektion:……………………………….</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="str">
+        <v>Die Anlage kann bei der 1. Prüfung durch den FS freigegeben werden:</v>
+      </c>
+      <c r="Q757" t="str">
+        <v>x JA</v>
+      </c>
+      <c r="T757" t="str">
+        <v>□ NEIN</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="str">
+        <v>Prüfung durchgeführt von:  Name:    István Faddi         Datum:  Unterschrift………………………</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="N760" t="str">
+        <f>(M678)</f>
+        <v>05.12.2024</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="str">
+        <v>Die Anlage kann bei der 2. Prüfung durch den FS freigegeben werden:</v>
+      </c>
+      <c r="Q762" t="str">
+        <v>□ JA</v>
+      </c>
+      <c r="T762" t="str">
+        <v>□ NEIN</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="str">
+        <v>Prüfung durchgeführt von:  Name:………………………….Datum:……...…………………..Unterschrift………………………</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="str">
+        <v>Unterschrift Leiter Wartungsabteilung</v>
+      </c>
+      <c r="J767" t="str">
+        <v>:</v>
+      </c>
+      <c r="K767" t="str">
+        <v>………………………………………….</v>
+      </c>
+      <c r="R767" t="str">
+        <v>Datum:………………..</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="str">
+        <v>Kenntnisnahme durch RD</v>
+      </c>
+      <c r="J769" t="str">
+        <v>:</v>
+      </c>
+      <c r="K769" t="str">
+        <v>………………………………………….</v>
+      </c>
+      <c r="R769" t="str">
+        <v>Datum:………………..</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="str">
+        <v>Kopie Protokoll an HQ Contract Eng</v>
+      </c>
+      <c r="J771" t="str">
+        <v>:</v>
+      </c>
+      <c r="K771" t="str">
+        <v>………………………………………….</v>
+      </c>
+      <c r="R771" t="str">
+        <v>Datum:………………..</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="str">
+        <v>(falls techn. Angaben oder zu korrigierender Plan)</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="str">
+        <v>Kopie Protokoll an Sec. DM-FN/FS</v>
+      </c>
+      <c r="J774" t="str">
+        <v>:</v>
+      </c>
+      <c r="K774" t="str">
+        <v>………………………………………….</v>
+      </c>
+      <c r="R774" t="str">
+        <v>Datum:………………..</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="str">
+        <v>Ref.</v>
+      </c>
+      <c r="E779" t="str">
+        <v>Erforderliche Nacharbeiten</v>
+      </c>
+      <c r="I779" t="str">
+        <v>Mangel</v>
+      </c>
+      <c r="K779" t="str">
+        <v>Zuständig</v>
+      </c>
+      <c r="N779" t="str">
+        <v xml:space="preserve">Beheben </v>
+      </c>
+      <c r="P779" t="str">
+        <v>Behoben am</v>
+      </c>
+      <c r="T779" t="str">
+        <v>Behoben durch</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="str">
+        <v xml:space="preserve">Nr. </v>
+      </c>
+      <c r="I780" t="str">
+        <v>gemäss SIA</v>
+      </c>
+      <c r="N780" t="str">
+        <v>bis</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="str">
+        <v xml:space="preserve">(des </v>
+      </c>
+      <c r="I781" t="str">
+        <v xml:space="preserve"> Ja   Nein</v>
+      </c>
+      <c r="S781" t="str">
+        <v>Unterschrift</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="str">
+        <v>Protokolls)</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +10049,7 @@
   </mergeCells>
   <pageMargins left="0.7875" right="0.39375" top="0.2361111111111111" bottom="0.375" header="0.5118055555555555" footer="0.2361111111111111"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AQ790"/>
   </ignoredErrors>
 </worksheet>
 </file>